--- a/Optimization models (Pyomo)/CORDOBA/CapProductor.xlsx
+++ b/Optimization models (Pyomo)/CORDOBA/CapProductor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNIMAG\Desktop\HENRY\OptimizationModel\Optimization models (Pyomo)\CORDOBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1796F96-722C-479F-A8D9-39EE59CEFEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954854E5-6D6C-4CA9-83C8-7E17E489BC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D8245522-83EB-45D0-8684-7D774F90F81A}"/>
   </bookViews>
@@ -36,45 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="30">
   <si>
     <t>CapProductor</t>
-  </si>
-  <si>
-    <t>Enero</t>
-  </si>
-  <si>
-    <t>Febrero</t>
-  </si>
-  <si>
-    <t>Marzo</t>
-  </si>
-  <si>
-    <t>Abril</t>
-  </si>
-  <si>
-    <t>Mayo</t>
-  </si>
-  <si>
-    <t>Junio</t>
-  </si>
-  <si>
-    <t>Julio</t>
-  </si>
-  <si>
-    <t>Agosto</t>
-  </si>
-  <si>
-    <t>Septiembre</t>
-  </si>
-  <si>
-    <t>Octubre</t>
-  </si>
-  <si>
-    <t>Noviembre</t>
-  </si>
-  <si>
-    <t>Diciembre</t>
   </si>
   <si>
     <t>Queso duro</t>
@@ -516,20 +480,20 @@
   <dimension ref="A1:D577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:C577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -537,12 +501,12 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
@@ -551,12 +515,12 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
@@ -565,12 +529,12 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
@@ -579,12 +543,12 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
@@ -593,12 +557,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
       <c r="D6">
@@ -607,12 +571,12 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
       <c r="D7">
@@ -621,12 +585,12 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
         <v>7</v>
       </c>
       <c r="D8">
@@ -635,12 +599,12 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>8</v>
       </c>
       <c r="D9">
@@ -649,12 +613,12 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
         <v>9</v>
       </c>
       <c r="D10">
@@ -663,12 +627,12 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
         <v>10</v>
       </c>
       <c r="D11">
@@ -677,12 +641,12 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>11</v>
       </c>
       <c r="D12">
@@ -691,12 +655,12 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
         <v>12</v>
       </c>
       <c r="D13">
@@ -705,12 +669,12 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
@@ -719,12 +683,12 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
@@ -733,12 +697,12 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
         <v>3</v>
       </c>
       <c r="D16">
@@ -747,12 +711,12 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
         <v>4</v>
       </c>
       <c r="D17">
@@ -761,12 +725,12 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
         <v>5</v>
       </c>
       <c r="D18">
@@ -775,12 +739,12 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
         <v>6</v>
       </c>
       <c r="D19">
@@ -789,12 +753,12 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
         <v>7</v>
       </c>
       <c r="D20">
@@ -803,12 +767,12 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
         <v>8</v>
       </c>
       <c r="D21">
@@ -817,12 +781,12 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
         <v>9</v>
       </c>
       <c r="D22">
@@ -831,12 +795,12 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
         <v>10</v>
       </c>
       <c r="D23">
@@ -845,12 +809,12 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
         <v>11</v>
       </c>
       <c r="D24">
@@ -859,12 +823,12 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
         <v>12</v>
       </c>
       <c r="D25">
@@ -873,12 +837,12 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
@@ -887,12 +851,12 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
         <v>2</v>
       </c>
       <c r="D27">
@@ -901,12 +865,12 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
         <v>3</v>
       </c>
       <c r="D28">
@@ -915,12 +879,12 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
         <v>4</v>
       </c>
       <c r="D29">
@@ -929,12 +893,12 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
         <v>5</v>
       </c>
       <c r="D30">
@@ -943,12 +907,12 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
         <v>6</v>
       </c>
       <c r="D31">
@@ -957,12 +921,12 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
         <v>7</v>
       </c>
       <c r="D32">
@@ -971,12 +935,12 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
         <v>8</v>
       </c>
       <c r="D33">
@@ -985,12 +949,12 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
         <v>9</v>
       </c>
       <c r="D34">
@@ -999,12 +963,12 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
         <v>10</v>
       </c>
       <c r="D35">
@@ -1013,12 +977,12 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36">
         <v>11</v>
       </c>
       <c r="D36">
@@ -1027,12 +991,12 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
         <v>12</v>
       </c>
       <c r="D37">
@@ -1041,12 +1005,12 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
@@ -1055,12 +1019,12 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39">
         <v>2</v>
       </c>
       <c r="D39">
@@ -1069,12 +1033,12 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
         <v>3</v>
       </c>
       <c r="D40">
@@ -1083,12 +1047,12 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41">
         <v>4</v>
       </c>
       <c r="D41">
@@ -1097,12 +1061,12 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42">
         <v>5</v>
       </c>
       <c r="D42">
@@ -1111,12 +1075,12 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43">
         <v>6</v>
       </c>
       <c r="D43">
@@ -1125,12 +1089,12 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
         <v>7</v>
       </c>
       <c r="D44">
@@ -1139,12 +1103,12 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45">
         <v>8</v>
       </c>
       <c r="D45">
@@ -1153,12 +1117,12 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
         <v>9</v>
       </c>
       <c r="D46">
@@ -1167,12 +1131,12 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47">
         <v>10</v>
       </c>
       <c r="D47">
@@ -1181,12 +1145,12 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48">
         <v>11</v>
       </c>
       <c r="D48">
@@ -1195,12 +1159,12 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49">
         <v>12</v>
       </c>
       <c r="D49">
@@ -1209,12 +1173,12 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
@@ -1223,12 +1187,12 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51">
         <v>2</v>
       </c>
       <c r="D51">
@@ -1237,12 +1201,12 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52">
         <v>3</v>
       </c>
       <c r="D52">
@@ -1251,12 +1215,12 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53">
         <v>4</v>
       </c>
       <c r="D53">
@@ -1265,12 +1229,12 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54">
         <v>5</v>
       </c>
       <c r="D54">
@@ -1279,12 +1243,12 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55">
         <v>6</v>
       </c>
       <c r="D55">
@@ -1293,12 +1257,12 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56">
         <v>7</v>
       </c>
       <c r="D56">
@@ -1307,12 +1271,12 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57">
         <v>8</v>
       </c>
       <c r="D57">
@@ -1321,12 +1285,12 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58">
         <v>9</v>
       </c>
       <c r="D58">
@@ -1335,12 +1299,12 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59">
         <v>10</v>
       </c>
       <c r="D59">
@@ -1349,12 +1313,12 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60">
         <v>11</v>
       </c>
       <c r="D60">
@@ -1363,12 +1327,12 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61">
         <v>12</v>
       </c>
       <c r="D61">
@@ -1377,12 +1341,12 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
@@ -1391,12 +1355,12 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63">
         <v>2</v>
       </c>
       <c r="D63">
@@ -1405,12 +1369,12 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64">
         <v>3</v>
       </c>
       <c r="D64">
@@ -1419,12 +1383,12 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
-      </c>
-      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65">
         <v>4</v>
       </c>
       <c r="D65">
@@ -1433,12 +1397,12 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
-      </c>
-      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66">
         <v>5</v>
       </c>
       <c r="D66">
@@ -1447,12 +1411,12 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
-      </c>
-      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67">
         <v>6</v>
       </c>
       <c r="D67">
@@ -1461,12 +1425,12 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
-      </c>
-      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68">
         <v>7</v>
       </c>
       <c r="D68">
@@ -1475,12 +1439,12 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69">
         <v>8</v>
       </c>
       <c r="D69">
@@ -1489,12 +1453,12 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B70" t="s">
-        <v>20</v>
-      </c>
-      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70">
         <v>9</v>
       </c>
       <c r="D70">
@@ -1503,12 +1467,12 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
-      </c>
-      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
         <v>10</v>
       </c>
       <c r="D71">
@@ -1517,12 +1481,12 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
-      </c>
-      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72">
         <v>11</v>
       </c>
       <c r="D72">
@@ -1531,12 +1495,12 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>20</v>
-      </c>
-      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73">
         <v>12</v>
       </c>
       <c r="D73">
@@ -1545,12 +1509,12 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
-      </c>
-      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74">
         <v>1</v>
       </c>
       <c r="D74">
@@ -1559,12 +1523,12 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
-      </c>
-      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75">
         <v>2</v>
       </c>
       <c r="D75">
@@ -1573,12 +1537,12 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
-      </c>
-      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76">
         <v>3</v>
       </c>
       <c r="D76">
@@ -1587,12 +1551,12 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
-      </c>
-      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77">
         <v>4</v>
       </c>
       <c r="D77">
@@ -1601,12 +1565,12 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B78" t="s">
-        <v>21</v>
-      </c>
-      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78">
         <v>5</v>
       </c>
       <c r="D78">
@@ -1615,12 +1579,12 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B79" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79">
         <v>6</v>
       </c>
       <c r="D79">
@@ -1629,12 +1593,12 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B80" t="s">
-        <v>21</v>
-      </c>
-      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80">
         <v>7</v>
       </c>
       <c r="D80">
@@ -1643,12 +1607,12 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B81" t="s">
-        <v>21</v>
-      </c>
-      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81">
         <v>8</v>
       </c>
       <c r="D81">
@@ -1657,12 +1621,12 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
-      </c>
-      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82">
         <v>9</v>
       </c>
       <c r="D82">
@@ -1671,12 +1635,12 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>21</v>
-      </c>
-      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83">
         <v>10</v>
       </c>
       <c r="D83">
@@ -1685,12 +1649,12 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
-      </c>
-      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84">
         <v>11</v>
       </c>
       <c r="D84">
@@ -1699,12 +1663,12 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B85" t="s">
-        <v>21</v>
-      </c>
-      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85">
         <v>12</v>
       </c>
       <c r="D85">
@@ -1713,12 +1677,12 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
-      </c>
-      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
@@ -1727,12 +1691,12 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
-      </c>
-      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87">
         <v>2</v>
       </c>
       <c r="D87">
@@ -1741,12 +1705,12 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
-      </c>
-      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88">
         <v>3</v>
       </c>
       <c r="D88">
@@ -1755,12 +1719,12 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
-      </c>
-      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89">
         <v>4</v>
       </c>
       <c r="D89">
@@ -1769,12 +1733,12 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>22</v>
-      </c>
-      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90">
         <v>5</v>
       </c>
       <c r="D90">
@@ -1783,12 +1747,12 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
-      </c>
-      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91">
         <v>6</v>
       </c>
       <c r="D91">
@@ -1797,12 +1761,12 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>22</v>
-      </c>
-      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92">
         <v>7</v>
       </c>
       <c r="D92">
@@ -1811,12 +1775,12 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>22</v>
-      </c>
-      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93">
         <v>8</v>
       </c>
       <c r="D93">
@@ -1825,12 +1789,12 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B94" t="s">
-        <v>22</v>
-      </c>
-      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94">
         <v>9</v>
       </c>
       <c r="D94">
@@ -1839,12 +1803,12 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
-      </c>
-      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95">
         <v>10</v>
       </c>
       <c r="D95">
@@ -1853,12 +1817,12 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B96" t="s">
-        <v>22</v>
-      </c>
-      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96">
         <v>11</v>
       </c>
       <c r="D96">
@@ -1867,12 +1831,12 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B97" t="s">
-        <v>22</v>
-      </c>
-      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97">
         <v>12</v>
       </c>
       <c r="D97">
@@ -1881,12 +1845,12 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B98" t="s">
-        <v>23</v>
-      </c>
-      <c r="C98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98">
         <v>1</v>
       </c>
       <c r="D98">
@@ -1895,12 +1859,12 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>23</v>
-      </c>
-      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99">
         <v>2</v>
       </c>
       <c r="D99">
@@ -1909,12 +1873,12 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B100" t="s">
-        <v>23</v>
-      </c>
-      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100">
         <v>3</v>
       </c>
       <c r="D100">
@@ -1923,12 +1887,12 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B101" t="s">
-        <v>23</v>
-      </c>
-      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101">
         <v>4</v>
       </c>
       <c r="D101">
@@ -1937,12 +1901,12 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B102" t="s">
-        <v>23</v>
-      </c>
-      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102">
         <v>5</v>
       </c>
       <c r="D102">
@@ -1951,12 +1915,12 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B103" t="s">
-        <v>23</v>
-      </c>
-      <c r="C103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103">
         <v>6</v>
       </c>
       <c r="D103">
@@ -1965,12 +1929,12 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B104" t="s">
-        <v>23</v>
-      </c>
-      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104">
         <v>7</v>
       </c>
       <c r="D104">
@@ -1979,12 +1943,12 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B105" t="s">
-        <v>23</v>
-      </c>
-      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105">
         <v>8</v>
       </c>
       <c r="D105">
@@ -1993,12 +1957,12 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B106" t="s">
-        <v>23</v>
-      </c>
-      <c r="C106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106">
         <v>9</v>
       </c>
       <c r="D106">
@@ -2007,12 +1971,12 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B107" t="s">
-        <v>23</v>
-      </c>
-      <c r="C107" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107">
         <v>10</v>
       </c>
       <c r="D107">
@@ -2021,12 +1985,12 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>23</v>
-      </c>
-      <c r="C108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108">
         <v>11</v>
       </c>
       <c r="D108">
@@ -2035,12 +1999,12 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>23</v>
-      </c>
-      <c r="C109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109">
         <v>12</v>
       </c>
       <c r="D109">
@@ -2049,12 +2013,12 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B110" t="s">
-        <v>24</v>
-      </c>
-      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110">
         <v>1</v>
       </c>
       <c r="D110">
@@ -2063,12 +2027,12 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B111" t="s">
-        <v>24</v>
-      </c>
-      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111">
         <v>2</v>
       </c>
       <c r="D111">
@@ -2077,12 +2041,12 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B112" t="s">
-        <v>24</v>
-      </c>
-      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112">
         <v>3</v>
       </c>
       <c r="D112">
@@ -2091,12 +2055,12 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B113" t="s">
-        <v>24</v>
-      </c>
-      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113">
         <v>4</v>
       </c>
       <c r="D113">
@@ -2105,12 +2069,12 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B114" t="s">
-        <v>24</v>
-      </c>
-      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114">
         <v>5</v>
       </c>
       <c r="D114">
@@ -2119,12 +2083,12 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B115" t="s">
-        <v>24</v>
-      </c>
-      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115">
         <v>6</v>
       </c>
       <c r="D115">
@@ -2133,12 +2097,12 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B116" t="s">
-        <v>24</v>
-      </c>
-      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116">
         <v>7</v>
       </c>
       <c r="D116">
@@ -2147,12 +2111,12 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B117" t="s">
-        <v>24</v>
-      </c>
-      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117">
         <v>8</v>
       </c>
       <c r="D117">
@@ -2161,12 +2125,12 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>24</v>
-      </c>
-      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118">
         <v>9</v>
       </c>
       <c r="D118">
@@ -2175,12 +2139,12 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B119" t="s">
-        <v>24</v>
-      </c>
-      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119">
         <v>10</v>
       </c>
       <c r="D119">
@@ -2189,12 +2153,12 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B120" t="s">
-        <v>24</v>
-      </c>
-      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120">
         <v>11</v>
       </c>
       <c r="D120">
@@ -2203,12 +2167,12 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>24</v>
-      </c>
-      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121">
         <v>12</v>
       </c>
       <c r="D121">
@@ -2217,12 +2181,12 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
         <v>13</v>
       </c>
-      <c r="B122" t="s">
-        <v>25</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="C122">
         <v>1</v>
       </c>
       <c r="D122">
@@ -2231,12 +2195,12 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
         <v>13</v>
       </c>
-      <c r="B123" t="s">
-        <v>25</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="C123">
         <v>2</v>
       </c>
       <c r="D123">
@@ -2245,12 +2209,12 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124" t="s">
         <v>13</v>
       </c>
-      <c r="B124" t="s">
-        <v>25</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="C124">
         <v>3</v>
       </c>
       <c r="D124">
@@ -2259,12 +2223,12 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" t="s">
         <v>13</v>
       </c>
-      <c r="B125" t="s">
-        <v>25</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="C125">
         <v>4</v>
       </c>
       <c r="D125">
@@ -2273,12 +2237,12 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126" t="s">
         <v>13</v>
       </c>
-      <c r="B126" t="s">
-        <v>25</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="C126">
         <v>5</v>
       </c>
       <c r="D126">
@@ -2287,12 +2251,12 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127" t="s">
         <v>13</v>
       </c>
-      <c r="B127" t="s">
-        <v>25</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="C127">
         <v>6</v>
       </c>
       <c r="D127">
@@ -2301,12 +2265,12 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" t="s">
         <v>13</v>
       </c>
-      <c r="B128" t="s">
-        <v>25</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="C128">
         <v>7</v>
       </c>
       <c r="D128">
@@ -2315,12 +2279,12 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" t="s">
         <v>13</v>
       </c>
-      <c r="B129" t="s">
-        <v>25</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="C129">
         <v>8</v>
       </c>
       <c r="D129">
@@ -2329,12 +2293,12 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130" t="s">
         <v>13</v>
       </c>
-      <c r="B130" t="s">
-        <v>25</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="C130">
         <v>9</v>
       </c>
       <c r="D130">
@@ -2343,12 +2307,12 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131" t="s">
         <v>13</v>
       </c>
-      <c r="B131" t="s">
-        <v>25</v>
-      </c>
-      <c r="C131" t="s">
+      <c r="C131">
         <v>10</v>
       </c>
       <c r="D131">
@@ -2357,12 +2321,12 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132" t="s">
         <v>13</v>
       </c>
-      <c r="B132" t="s">
-        <v>25</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="C132">
         <v>11</v>
       </c>
       <c r="D132">
@@ -2371,12 +2335,12 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
+        <v>1</v>
+      </c>
+      <c r="B133" t="s">
         <v>13</v>
       </c>
-      <c r="B133" t="s">
-        <v>25</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="C133">
         <v>12</v>
       </c>
       <c r="D133">
@@ -2385,12 +2349,12 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B134" t="s">
-        <v>26</v>
-      </c>
-      <c r="C134" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134">
         <v>1</v>
       </c>
       <c r="D134">
@@ -2399,12 +2363,12 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B135" t="s">
-        <v>26</v>
-      </c>
-      <c r="C135" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135">
         <v>2</v>
       </c>
       <c r="D135">
@@ -2413,12 +2377,12 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B136" t="s">
-        <v>26</v>
-      </c>
-      <c r="C136" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136">
         <v>3</v>
       </c>
       <c r="D136">
@@ -2427,12 +2391,12 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B137" t="s">
-        <v>26</v>
-      </c>
-      <c r="C137" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137">
         <v>4</v>
       </c>
       <c r="D137">
@@ -2441,12 +2405,12 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B138" t="s">
-        <v>26</v>
-      </c>
-      <c r="C138" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138">
         <v>5</v>
       </c>
       <c r="D138">
@@ -2455,12 +2419,12 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B139" t="s">
-        <v>26</v>
-      </c>
-      <c r="C139" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139">
         <v>6</v>
       </c>
       <c r="D139">
@@ -2469,12 +2433,12 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B140" t="s">
-        <v>26</v>
-      </c>
-      <c r="C140" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140">
         <v>7</v>
       </c>
       <c r="D140">
@@ -2483,12 +2447,12 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B141" t="s">
-        <v>26</v>
-      </c>
-      <c r="C141" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141">
         <v>8</v>
       </c>
       <c r="D141">
@@ -2497,12 +2461,12 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B142" t="s">
-        <v>26</v>
-      </c>
-      <c r="C142" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142">
         <v>9</v>
       </c>
       <c r="D142">
@@ -2511,12 +2475,12 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B143" t="s">
-        <v>26</v>
-      </c>
-      <c r="C143" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143">
         <v>10</v>
       </c>
       <c r="D143">
@@ -2525,12 +2489,12 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B144" t="s">
-        <v>26</v>
-      </c>
-      <c r="C144" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144">
         <v>11</v>
       </c>
       <c r="D144">
@@ -2539,12 +2503,12 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B145" t="s">
-        <v>26</v>
-      </c>
-      <c r="C145" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145">
         <v>12</v>
       </c>
       <c r="D145">
@@ -2553,12 +2517,12 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B146" t="s">
-        <v>27</v>
-      </c>
-      <c r="C146" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
@@ -2567,12 +2531,12 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B147" t="s">
-        <v>27</v>
-      </c>
-      <c r="C147" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147">
         <v>2</v>
       </c>
       <c r="D147">
@@ -2581,12 +2545,12 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B148" t="s">
-        <v>27</v>
-      </c>
-      <c r="C148" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148">
         <v>3</v>
       </c>
       <c r="D148">
@@ -2595,12 +2559,12 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B149" t="s">
-        <v>27</v>
-      </c>
-      <c r="C149" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149">
         <v>4</v>
       </c>
       <c r="D149">
@@ -2609,12 +2573,12 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B150" t="s">
-        <v>27</v>
-      </c>
-      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150">
         <v>5</v>
       </c>
       <c r="D150">
@@ -2623,12 +2587,12 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B151" t="s">
-        <v>27</v>
-      </c>
-      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151">
         <v>6</v>
       </c>
       <c r="D151">
@@ -2637,12 +2601,12 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B152" t="s">
-        <v>27</v>
-      </c>
-      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="C152">
         <v>7</v>
       </c>
       <c r="D152">
@@ -2651,12 +2615,12 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B153" t="s">
-        <v>27</v>
-      </c>
-      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153">
         <v>8</v>
       </c>
       <c r="D153">
@@ -2665,12 +2629,12 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B154" t="s">
-        <v>27</v>
-      </c>
-      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154">
         <v>9</v>
       </c>
       <c r="D154">
@@ -2679,12 +2643,12 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B155" t="s">
-        <v>27</v>
-      </c>
-      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155">
         <v>10</v>
       </c>
       <c r="D155">
@@ -2693,12 +2657,12 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B156" t="s">
-        <v>27</v>
-      </c>
-      <c r="C156" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156">
         <v>11</v>
       </c>
       <c r="D156">
@@ -2707,12 +2671,12 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B157" t="s">
-        <v>27</v>
-      </c>
-      <c r="C157" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157">
         <v>12</v>
       </c>
       <c r="D157">
@@ -2721,12 +2685,12 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B158" t="s">
-        <v>28</v>
-      </c>
-      <c r="C158" t="s">
+        <v>16</v>
+      </c>
+      <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
@@ -2735,12 +2699,12 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B159" t="s">
-        <v>28</v>
-      </c>
-      <c r="C159" t="s">
+        <v>16</v>
+      </c>
+      <c r="C159">
         <v>2</v>
       </c>
       <c r="D159">
@@ -2749,12 +2713,12 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B160" t="s">
-        <v>28</v>
-      </c>
-      <c r="C160" t="s">
+        <v>16</v>
+      </c>
+      <c r="C160">
         <v>3</v>
       </c>
       <c r="D160">
@@ -2763,12 +2727,12 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B161" t="s">
-        <v>28</v>
-      </c>
-      <c r="C161" t="s">
+        <v>16</v>
+      </c>
+      <c r="C161">
         <v>4</v>
       </c>
       <c r="D161">
@@ -2777,12 +2741,12 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B162" t="s">
-        <v>28</v>
-      </c>
-      <c r="C162" t="s">
+        <v>16</v>
+      </c>
+      <c r="C162">
         <v>5</v>
       </c>
       <c r="D162">
@@ -2791,12 +2755,12 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B163" t="s">
-        <v>28</v>
-      </c>
-      <c r="C163" t="s">
+        <v>16</v>
+      </c>
+      <c r="C163">
         <v>6</v>
       </c>
       <c r="D163">
@@ -2805,12 +2769,12 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B164" t="s">
-        <v>28</v>
-      </c>
-      <c r="C164" t="s">
+        <v>16</v>
+      </c>
+      <c r="C164">
         <v>7</v>
       </c>
       <c r="D164">
@@ -2819,12 +2783,12 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B165" t="s">
-        <v>28</v>
-      </c>
-      <c r="C165" t="s">
+        <v>16</v>
+      </c>
+      <c r="C165">
         <v>8</v>
       </c>
       <c r="D165">
@@ -2833,12 +2797,12 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B166" t="s">
-        <v>28</v>
-      </c>
-      <c r="C166" t="s">
+        <v>16</v>
+      </c>
+      <c r="C166">
         <v>9</v>
       </c>
       <c r="D166">
@@ -2847,12 +2811,12 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B167" t="s">
-        <v>28</v>
-      </c>
-      <c r="C167" t="s">
+        <v>16</v>
+      </c>
+      <c r="C167">
         <v>10</v>
       </c>
       <c r="D167">
@@ -2861,12 +2825,12 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B168" t="s">
-        <v>28</v>
-      </c>
-      <c r="C168" t="s">
+        <v>16</v>
+      </c>
+      <c r="C168">
         <v>11</v>
       </c>
       <c r="D168">
@@ -2875,12 +2839,12 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B169" t="s">
-        <v>28</v>
-      </c>
-      <c r="C169" t="s">
+        <v>16</v>
+      </c>
+      <c r="C169">
         <v>12</v>
       </c>
       <c r="D169">
@@ -2889,12 +2853,12 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B170" t="s">
-        <v>29</v>
-      </c>
-      <c r="C170" t="s">
+        <v>17</v>
+      </c>
+      <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
@@ -2903,12 +2867,12 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B171" t="s">
-        <v>29</v>
-      </c>
-      <c r="C171" t="s">
+        <v>17</v>
+      </c>
+      <c r="C171">
         <v>2</v>
       </c>
       <c r="D171">
@@ -2917,12 +2881,12 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B172" t="s">
-        <v>29</v>
-      </c>
-      <c r="C172" t="s">
+        <v>17</v>
+      </c>
+      <c r="C172">
         <v>3</v>
       </c>
       <c r="D172">
@@ -2931,12 +2895,12 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B173" t="s">
-        <v>29</v>
-      </c>
-      <c r="C173" t="s">
+        <v>17</v>
+      </c>
+      <c r="C173">
         <v>4</v>
       </c>
       <c r="D173">
@@ -2945,12 +2909,12 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B174" t="s">
-        <v>29</v>
-      </c>
-      <c r="C174" t="s">
+        <v>17</v>
+      </c>
+      <c r="C174">
         <v>5</v>
       </c>
       <c r="D174">
@@ -2959,12 +2923,12 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B175" t="s">
-        <v>29</v>
-      </c>
-      <c r="C175" t="s">
+        <v>17</v>
+      </c>
+      <c r="C175">
         <v>6</v>
       </c>
       <c r="D175">
@@ -2973,12 +2937,12 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B176" t="s">
-        <v>29</v>
-      </c>
-      <c r="C176" t="s">
+        <v>17</v>
+      </c>
+      <c r="C176">
         <v>7</v>
       </c>
       <c r="D176">
@@ -2987,12 +2951,12 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B177" t="s">
-        <v>29</v>
-      </c>
-      <c r="C177" t="s">
+        <v>17</v>
+      </c>
+      <c r="C177">
         <v>8</v>
       </c>
       <c r="D177">
@@ -3001,12 +2965,12 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B178" t="s">
-        <v>29</v>
-      </c>
-      <c r="C178" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178">
         <v>9</v>
       </c>
       <c r="D178">
@@ -3015,12 +2979,12 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B179" t="s">
-        <v>29</v>
-      </c>
-      <c r="C179" t="s">
+        <v>17</v>
+      </c>
+      <c r="C179">
         <v>10</v>
       </c>
       <c r="D179">
@@ -3029,12 +2993,12 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B180" t="s">
-        <v>29</v>
-      </c>
-      <c r="C180" t="s">
+        <v>17</v>
+      </c>
+      <c r="C180">
         <v>11</v>
       </c>
       <c r="D180">
@@ -3043,12 +3007,12 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B181" t="s">
-        <v>29</v>
-      </c>
-      <c r="C181" t="s">
+        <v>17</v>
+      </c>
+      <c r="C181">
         <v>12</v>
       </c>
       <c r="D181">
@@ -3057,12 +3021,12 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B182" t="s">
-        <v>30</v>
-      </c>
-      <c r="C182" t="s">
+        <v>18</v>
+      </c>
+      <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
@@ -3071,12 +3035,12 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B183" t="s">
-        <v>30</v>
-      </c>
-      <c r="C183" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183">
         <v>2</v>
       </c>
       <c r="D183">
@@ -3085,12 +3049,12 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B184" t="s">
-        <v>30</v>
-      </c>
-      <c r="C184" t="s">
+        <v>18</v>
+      </c>
+      <c r="C184">
         <v>3</v>
       </c>
       <c r="D184">
@@ -3099,12 +3063,12 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B185" t="s">
-        <v>30</v>
-      </c>
-      <c r="C185" t="s">
+        <v>18</v>
+      </c>
+      <c r="C185">
         <v>4</v>
       </c>
       <c r="D185">
@@ -3113,12 +3077,12 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B186" t="s">
-        <v>30</v>
-      </c>
-      <c r="C186" t="s">
+        <v>18</v>
+      </c>
+      <c r="C186">
         <v>5</v>
       </c>
       <c r="D186">
@@ -3127,12 +3091,12 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B187" t="s">
-        <v>30</v>
-      </c>
-      <c r="C187" t="s">
+        <v>18</v>
+      </c>
+      <c r="C187">
         <v>6</v>
       </c>
       <c r="D187">
@@ -3141,12 +3105,12 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B188" t="s">
-        <v>30</v>
-      </c>
-      <c r="C188" t="s">
+        <v>18</v>
+      </c>
+      <c r="C188">
         <v>7</v>
       </c>
       <c r="D188">
@@ -3155,12 +3119,12 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B189" t="s">
-        <v>30</v>
-      </c>
-      <c r="C189" t="s">
+        <v>18</v>
+      </c>
+      <c r="C189">
         <v>8</v>
       </c>
       <c r="D189">
@@ -3169,12 +3133,12 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B190" t="s">
-        <v>30</v>
-      </c>
-      <c r="C190" t="s">
+        <v>18</v>
+      </c>
+      <c r="C190">
         <v>9</v>
       </c>
       <c r="D190">
@@ -3183,12 +3147,12 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B191" t="s">
-        <v>30</v>
-      </c>
-      <c r="C191" t="s">
+        <v>18</v>
+      </c>
+      <c r="C191">
         <v>10</v>
       </c>
       <c r="D191">
@@ -3197,12 +3161,12 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B192" t="s">
-        <v>30</v>
-      </c>
-      <c r="C192" t="s">
+        <v>18</v>
+      </c>
+      <c r="C192">
         <v>11</v>
       </c>
       <c r="D192">
@@ -3211,12 +3175,12 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B193" t="s">
-        <v>30</v>
-      </c>
-      <c r="C193" t="s">
+        <v>18</v>
+      </c>
+      <c r="C193">
         <v>12</v>
       </c>
       <c r="D193">
@@ -3225,12 +3189,12 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B194" t="s">
-        <v>31</v>
-      </c>
-      <c r="C194" t="s">
+        <v>19</v>
+      </c>
+      <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
@@ -3239,12 +3203,12 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>31</v>
-      </c>
-      <c r="C195" t="s">
+        <v>19</v>
+      </c>
+      <c r="C195">
         <v>2</v>
       </c>
       <c r="D195">
@@ -3253,12 +3217,12 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B196" t="s">
-        <v>31</v>
-      </c>
-      <c r="C196" t="s">
+        <v>19</v>
+      </c>
+      <c r="C196">
         <v>3</v>
       </c>
       <c r="D196">
@@ -3267,12 +3231,12 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B197" t="s">
-        <v>31</v>
-      </c>
-      <c r="C197" t="s">
+        <v>19</v>
+      </c>
+      <c r="C197">
         <v>4</v>
       </c>
       <c r="D197">
@@ -3281,12 +3245,12 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B198" t="s">
-        <v>31</v>
-      </c>
-      <c r="C198" t="s">
+        <v>19</v>
+      </c>
+      <c r="C198">
         <v>5</v>
       </c>
       <c r="D198">
@@ -3295,12 +3259,12 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B199" t="s">
-        <v>31</v>
-      </c>
-      <c r="C199" t="s">
+        <v>19</v>
+      </c>
+      <c r="C199">
         <v>6</v>
       </c>
       <c r="D199">
@@ -3309,12 +3273,12 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B200" t="s">
-        <v>31</v>
-      </c>
-      <c r="C200" t="s">
+        <v>19</v>
+      </c>
+      <c r="C200">
         <v>7</v>
       </c>
       <c r="D200">
@@ -3323,12 +3287,12 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B201" t="s">
-        <v>31</v>
-      </c>
-      <c r="C201" t="s">
+        <v>19</v>
+      </c>
+      <c r="C201">
         <v>8</v>
       </c>
       <c r="D201">
@@ -3337,12 +3301,12 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B202" t="s">
-        <v>31</v>
-      </c>
-      <c r="C202" t="s">
+        <v>19</v>
+      </c>
+      <c r="C202">
         <v>9</v>
       </c>
       <c r="D202">
@@ -3351,12 +3315,12 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B203" t="s">
-        <v>31</v>
-      </c>
-      <c r="C203" t="s">
+        <v>19</v>
+      </c>
+      <c r="C203">
         <v>10</v>
       </c>
       <c r="D203">
@@ -3365,12 +3329,12 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B204" t="s">
-        <v>31</v>
-      </c>
-      <c r="C204" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204">
         <v>11</v>
       </c>
       <c r="D204">
@@ -3379,12 +3343,12 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B205" t="s">
-        <v>31</v>
-      </c>
-      <c r="C205" t="s">
+        <v>19</v>
+      </c>
+      <c r="C205">
         <v>12</v>
       </c>
       <c r="D205">
@@ -3393,12 +3357,12 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B206" t="s">
-        <v>32</v>
-      </c>
-      <c r="C206" t="s">
+        <v>20</v>
+      </c>
+      <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
@@ -3407,12 +3371,12 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B207" t="s">
-        <v>32</v>
-      </c>
-      <c r="C207" t="s">
+        <v>20</v>
+      </c>
+      <c r="C207">
         <v>2</v>
       </c>
       <c r="D207">
@@ -3421,12 +3385,12 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B208" t="s">
-        <v>32</v>
-      </c>
-      <c r="C208" t="s">
+        <v>20</v>
+      </c>
+      <c r="C208">
         <v>3</v>
       </c>
       <c r="D208">
@@ -3435,12 +3399,12 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B209" t="s">
-        <v>32</v>
-      </c>
-      <c r="C209" t="s">
+        <v>20</v>
+      </c>
+      <c r="C209">
         <v>4</v>
       </c>
       <c r="D209">
@@ -3449,12 +3413,12 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B210" t="s">
-        <v>32</v>
-      </c>
-      <c r="C210" t="s">
+        <v>20</v>
+      </c>
+      <c r="C210">
         <v>5</v>
       </c>
       <c r="D210">
@@ -3463,12 +3427,12 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B211" t="s">
-        <v>32</v>
-      </c>
-      <c r="C211" t="s">
+        <v>20</v>
+      </c>
+      <c r="C211">
         <v>6</v>
       </c>
       <c r="D211">
@@ -3477,12 +3441,12 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B212" t="s">
-        <v>32</v>
-      </c>
-      <c r="C212" t="s">
+        <v>20</v>
+      </c>
+      <c r="C212">
         <v>7</v>
       </c>
       <c r="D212">
@@ -3491,12 +3455,12 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B213" t="s">
-        <v>32</v>
-      </c>
-      <c r="C213" t="s">
+        <v>20</v>
+      </c>
+      <c r="C213">
         <v>8</v>
       </c>
       <c r="D213">
@@ -3505,12 +3469,12 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B214" t="s">
-        <v>32</v>
-      </c>
-      <c r="C214" t="s">
+        <v>20</v>
+      </c>
+      <c r="C214">
         <v>9</v>
       </c>
       <c r="D214">
@@ -3519,12 +3483,12 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B215" t="s">
-        <v>32</v>
-      </c>
-      <c r="C215" t="s">
+        <v>20</v>
+      </c>
+      <c r="C215">
         <v>10</v>
       </c>
       <c r="D215">
@@ -3533,12 +3497,12 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B216" t="s">
-        <v>32</v>
-      </c>
-      <c r="C216" t="s">
+        <v>20</v>
+      </c>
+      <c r="C216">
         <v>11</v>
       </c>
       <c r="D216">
@@ -3547,12 +3511,12 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B217" t="s">
-        <v>32</v>
-      </c>
-      <c r="C217" t="s">
+        <v>20</v>
+      </c>
+      <c r="C217">
         <v>12</v>
       </c>
       <c r="D217">
@@ -3561,12 +3525,12 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B218" t="s">
-        <v>33</v>
-      </c>
-      <c r="C218" t="s">
+        <v>21</v>
+      </c>
+      <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
@@ -3575,12 +3539,12 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B219" t="s">
-        <v>33</v>
-      </c>
-      <c r="C219" t="s">
+        <v>21</v>
+      </c>
+      <c r="C219">
         <v>2</v>
       </c>
       <c r="D219">
@@ -3589,12 +3553,12 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B220" t="s">
-        <v>33</v>
-      </c>
-      <c r="C220" t="s">
+        <v>21</v>
+      </c>
+      <c r="C220">
         <v>3</v>
       </c>
       <c r="D220">
@@ -3603,12 +3567,12 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B221" t="s">
-        <v>33</v>
-      </c>
-      <c r="C221" t="s">
+        <v>21</v>
+      </c>
+      <c r="C221">
         <v>4</v>
       </c>
       <c r="D221">
@@ -3617,12 +3581,12 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B222" t="s">
-        <v>33</v>
-      </c>
-      <c r="C222" t="s">
+        <v>21</v>
+      </c>
+      <c r="C222">
         <v>5</v>
       </c>
       <c r="D222">
@@ -3631,12 +3595,12 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B223" t="s">
-        <v>33</v>
-      </c>
-      <c r="C223" t="s">
+        <v>21</v>
+      </c>
+      <c r="C223">
         <v>6</v>
       </c>
       <c r="D223">
@@ -3645,12 +3609,12 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B224" t="s">
-        <v>33</v>
-      </c>
-      <c r="C224" t="s">
+        <v>21</v>
+      </c>
+      <c r="C224">
         <v>7</v>
       </c>
       <c r="D224">
@@ -3659,12 +3623,12 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B225" t="s">
-        <v>33</v>
-      </c>
-      <c r="C225" t="s">
+        <v>21</v>
+      </c>
+      <c r="C225">
         <v>8</v>
       </c>
       <c r="D225">
@@ -3673,12 +3637,12 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B226" t="s">
-        <v>33</v>
-      </c>
-      <c r="C226" t="s">
+        <v>21</v>
+      </c>
+      <c r="C226">
         <v>9</v>
       </c>
       <c r="D226">
@@ -3687,12 +3651,12 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B227" t="s">
-        <v>33</v>
-      </c>
-      <c r="C227" t="s">
+        <v>21</v>
+      </c>
+      <c r="C227">
         <v>10</v>
       </c>
       <c r="D227">
@@ -3701,12 +3665,12 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B228" t="s">
-        <v>33</v>
-      </c>
-      <c r="C228" t="s">
+        <v>21</v>
+      </c>
+      <c r="C228">
         <v>11</v>
       </c>
       <c r="D228">
@@ -3715,12 +3679,12 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B229" t="s">
-        <v>33</v>
-      </c>
-      <c r="C229" t="s">
+        <v>21</v>
+      </c>
+      <c r="C229">
         <v>12</v>
       </c>
       <c r="D229">
@@ -3729,12 +3693,12 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B230" t="s">
-        <v>34</v>
-      </c>
-      <c r="C230" t="s">
+        <v>22</v>
+      </c>
+      <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
@@ -3743,12 +3707,12 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B231" t="s">
-        <v>34</v>
-      </c>
-      <c r="C231" t="s">
+        <v>22</v>
+      </c>
+      <c r="C231">
         <v>2</v>
       </c>
       <c r="D231">
@@ -3757,12 +3721,12 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B232" t="s">
-        <v>34</v>
-      </c>
-      <c r="C232" t="s">
+        <v>22</v>
+      </c>
+      <c r="C232">
         <v>3</v>
       </c>
       <c r="D232">
@@ -3771,12 +3735,12 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B233" t="s">
-        <v>34</v>
-      </c>
-      <c r="C233" t="s">
+        <v>22</v>
+      </c>
+      <c r="C233">
         <v>4</v>
       </c>
       <c r="D233">
@@ -3785,12 +3749,12 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B234" t="s">
-        <v>34</v>
-      </c>
-      <c r="C234" t="s">
+        <v>22</v>
+      </c>
+      <c r="C234">
         <v>5</v>
       </c>
       <c r="D234">
@@ -3799,12 +3763,12 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B235" t="s">
-        <v>34</v>
-      </c>
-      <c r="C235" t="s">
+        <v>22</v>
+      </c>
+      <c r="C235">
         <v>6</v>
       </c>
       <c r="D235">
@@ -3813,12 +3777,12 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B236" t="s">
-        <v>34</v>
-      </c>
-      <c r="C236" t="s">
+        <v>22</v>
+      </c>
+      <c r="C236">
         <v>7</v>
       </c>
       <c r="D236">
@@ -3827,12 +3791,12 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B237" t="s">
-        <v>34</v>
-      </c>
-      <c r="C237" t="s">
+        <v>22</v>
+      </c>
+      <c r="C237">
         <v>8</v>
       </c>
       <c r="D237">
@@ -3841,12 +3805,12 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B238" t="s">
-        <v>34</v>
-      </c>
-      <c r="C238" t="s">
+        <v>22</v>
+      </c>
+      <c r="C238">
         <v>9</v>
       </c>
       <c r="D238">
@@ -3855,12 +3819,12 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B239" t="s">
-        <v>34</v>
-      </c>
-      <c r="C239" t="s">
+        <v>22</v>
+      </c>
+      <c r="C239">
         <v>10</v>
       </c>
       <c r="D239">
@@ -3869,12 +3833,12 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B240" t="s">
-        <v>34</v>
-      </c>
-      <c r="C240" t="s">
+        <v>22</v>
+      </c>
+      <c r="C240">
         <v>11</v>
       </c>
       <c r="D240">
@@ -3883,12 +3847,12 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B241" t="s">
-        <v>34</v>
-      </c>
-      <c r="C241" t="s">
+        <v>22</v>
+      </c>
+      <c r="C241">
         <v>12</v>
       </c>
       <c r="D241">
@@ -3897,12 +3861,12 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B242" t="s">
-        <v>35</v>
-      </c>
-      <c r="C242" t="s">
+        <v>23</v>
+      </c>
+      <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
@@ -3911,12 +3875,12 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B243" t="s">
-        <v>35</v>
-      </c>
-      <c r="C243" t="s">
+        <v>23</v>
+      </c>
+      <c r="C243">
         <v>2</v>
       </c>
       <c r="D243">
@@ -3925,12 +3889,12 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B244" t="s">
-        <v>35</v>
-      </c>
-      <c r="C244" t="s">
+        <v>23</v>
+      </c>
+      <c r="C244">
         <v>3</v>
       </c>
       <c r="D244">
@@ -3939,12 +3903,12 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B245" t="s">
-        <v>35</v>
-      </c>
-      <c r="C245" t="s">
+        <v>23</v>
+      </c>
+      <c r="C245">
         <v>4</v>
       </c>
       <c r="D245">
@@ -3953,12 +3917,12 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B246" t="s">
-        <v>35</v>
-      </c>
-      <c r="C246" t="s">
+        <v>23</v>
+      </c>
+      <c r="C246">
         <v>5</v>
       </c>
       <c r="D246">
@@ -3967,12 +3931,12 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B247" t="s">
-        <v>35</v>
-      </c>
-      <c r="C247" t="s">
+        <v>23</v>
+      </c>
+      <c r="C247">
         <v>6</v>
       </c>
       <c r="D247">
@@ -3981,12 +3945,12 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B248" t="s">
-        <v>35</v>
-      </c>
-      <c r="C248" t="s">
+        <v>23</v>
+      </c>
+      <c r="C248">
         <v>7</v>
       </c>
       <c r="D248">
@@ -3995,12 +3959,12 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B249" t="s">
-        <v>35</v>
-      </c>
-      <c r="C249" t="s">
+        <v>23</v>
+      </c>
+      <c r="C249">
         <v>8</v>
       </c>
       <c r="D249">
@@ -4009,12 +3973,12 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B250" t="s">
-        <v>35</v>
-      </c>
-      <c r="C250" t="s">
+        <v>23</v>
+      </c>
+      <c r="C250">
         <v>9</v>
       </c>
       <c r="D250">
@@ -4023,12 +3987,12 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B251" t="s">
-        <v>35</v>
-      </c>
-      <c r="C251" t="s">
+        <v>23</v>
+      </c>
+      <c r="C251">
         <v>10</v>
       </c>
       <c r="D251">
@@ -4037,12 +4001,12 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B252" t="s">
-        <v>35</v>
-      </c>
-      <c r="C252" t="s">
+        <v>23</v>
+      </c>
+      <c r="C252">
         <v>11</v>
       </c>
       <c r="D252">
@@ -4051,12 +4015,12 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B253" t="s">
-        <v>35</v>
-      </c>
-      <c r="C253" t="s">
+        <v>23</v>
+      </c>
+      <c r="C253">
         <v>12</v>
       </c>
       <c r="D253">
@@ -4065,12 +4029,12 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B254" t="s">
-        <v>36</v>
-      </c>
-      <c r="C254" t="s">
+        <v>24</v>
+      </c>
+      <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
@@ -4079,12 +4043,12 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B255" t="s">
-        <v>36</v>
-      </c>
-      <c r="C255" t="s">
+        <v>24</v>
+      </c>
+      <c r="C255">
         <v>2</v>
       </c>
       <c r="D255">
@@ -4093,12 +4057,12 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B256" t="s">
-        <v>36</v>
-      </c>
-      <c r="C256" t="s">
+        <v>24</v>
+      </c>
+      <c r="C256">
         <v>3</v>
       </c>
       <c r="D256">
@@ -4107,12 +4071,12 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B257" t="s">
-        <v>36</v>
-      </c>
-      <c r="C257" t="s">
+        <v>24</v>
+      </c>
+      <c r="C257">
         <v>4</v>
       </c>
       <c r="D257">
@@ -4121,12 +4085,12 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B258" t="s">
-        <v>36</v>
-      </c>
-      <c r="C258" t="s">
+        <v>24</v>
+      </c>
+      <c r="C258">
         <v>5</v>
       </c>
       <c r="D258">
@@ -4135,12 +4099,12 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B259" t="s">
-        <v>36</v>
-      </c>
-      <c r="C259" t="s">
+        <v>24</v>
+      </c>
+      <c r="C259">
         <v>6</v>
       </c>
       <c r="D259">
@@ -4149,12 +4113,12 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B260" t="s">
-        <v>36</v>
-      </c>
-      <c r="C260" t="s">
+        <v>24</v>
+      </c>
+      <c r="C260">
         <v>7</v>
       </c>
       <c r="D260">
@@ -4163,12 +4127,12 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B261" t="s">
-        <v>36</v>
-      </c>
-      <c r="C261" t="s">
+        <v>24</v>
+      </c>
+      <c r="C261">
         <v>8</v>
       </c>
       <c r="D261">
@@ -4177,12 +4141,12 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B262" t="s">
-        <v>36</v>
-      </c>
-      <c r="C262" t="s">
+        <v>24</v>
+      </c>
+      <c r="C262">
         <v>9</v>
       </c>
       <c r="D262">
@@ -4191,12 +4155,12 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B263" t="s">
-        <v>36</v>
-      </c>
-      <c r="C263" t="s">
+        <v>24</v>
+      </c>
+      <c r="C263">
         <v>10</v>
       </c>
       <c r="D263">
@@ -4205,12 +4169,12 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B264" t="s">
-        <v>36</v>
-      </c>
-      <c r="C264" t="s">
+        <v>24</v>
+      </c>
+      <c r="C264">
         <v>11</v>
       </c>
       <c r="D264">
@@ -4219,12 +4183,12 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B265" t="s">
-        <v>36</v>
-      </c>
-      <c r="C265" t="s">
+        <v>24</v>
+      </c>
+      <c r="C265">
         <v>12</v>
       </c>
       <c r="D265">
@@ -4233,12 +4197,12 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B266" t="s">
-        <v>37</v>
-      </c>
-      <c r="C266" t="s">
+        <v>25</v>
+      </c>
+      <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
@@ -4247,12 +4211,12 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B267" t="s">
-        <v>37</v>
-      </c>
-      <c r="C267" t="s">
+        <v>25</v>
+      </c>
+      <c r="C267">
         <v>2</v>
       </c>
       <c r="D267">
@@ -4261,12 +4225,12 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B268" t="s">
-        <v>37</v>
-      </c>
-      <c r="C268" t="s">
+        <v>25</v>
+      </c>
+      <c r="C268">
         <v>3</v>
       </c>
       <c r="D268">
@@ -4275,12 +4239,12 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B269" t="s">
-        <v>37</v>
-      </c>
-      <c r="C269" t="s">
+        <v>25</v>
+      </c>
+      <c r="C269">
         <v>4</v>
       </c>
       <c r="D269">
@@ -4289,12 +4253,12 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B270" t="s">
-        <v>37</v>
-      </c>
-      <c r="C270" t="s">
+        <v>25</v>
+      </c>
+      <c r="C270">
         <v>5</v>
       </c>
       <c r="D270">
@@ -4303,12 +4267,12 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B271" t="s">
-        <v>37</v>
-      </c>
-      <c r="C271" t="s">
+        <v>25</v>
+      </c>
+      <c r="C271">
         <v>6</v>
       </c>
       <c r="D271">
@@ -4317,12 +4281,12 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B272" t="s">
-        <v>37</v>
-      </c>
-      <c r="C272" t="s">
+        <v>25</v>
+      </c>
+      <c r="C272">
         <v>7</v>
       </c>
       <c r="D272">
@@ -4331,12 +4295,12 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B273" t="s">
-        <v>37</v>
-      </c>
-      <c r="C273" t="s">
+        <v>25</v>
+      </c>
+      <c r="C273">
         <v>8</v>
       </c>
       <c r="D273">
@@ -4345,12 +4309,12 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B274" t="s">
-        <v>37</v>
-      </c>
-      <c r="C274" t="s">
+        <v>25</v>
+      </c>
+      <c r="C274">
         <v>9</v>
       </c>
       <c r="D274">
@@ -4359,12 +4323,12 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B275" t="s">
-        <v>37</v>
-      </c>
-      <c r="C275" t="s">
+        <v>25</v>
+      </c>
+      <c r="C275">
         <v>10</v>
       </c>
       <c r="D275">
@@ -4373,12 +4337,12 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B276" t="s">
-        <v>37</v>
-      </c>
-      <c r="C276" t="s">
+        <v>25</v>
+      </c>
+      <c r="C276">
         <v>11</v>
       </c>
       <c r="D276">
@@ -4387,12 +4351,12 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B277" t="s">
-        <v>37</v>
-      </c>
-      <c r="C277" t="s">
+        <v>25</v>
+      </c>
+      <c r="C277">
         <v>12</v>
       </c>
       <c r="D277">
@@ -4401,12 +4365,12 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B278" t="s">
-        <v>38</v>
-      </c>
-      <c r="C278" t="s">
+        <v>26</v>
+      </c>
+      <c r="C278">
         <v>1</v>
       </c>
       <c r="D278">
@@ -4415,12 +4379,12 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B279" t="s">
-        <v>38</v>
-      </c>
-      <c r="C279" t="s">
+        <v>26</v>
+      </c>
+      <c r="C279">
         <v>2</v>
       </c>
       <c r="D279">
@@ -4429,12 +4393,12 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B280" t="s">
-        <v>38</v>
-      </c>
-      <c r="C280" t="s">
+        <v>26</v>
+      </c>
+      <c r="C280">
         <v>3</v>
       </c>
       <c r="D280">
@@ -4443,12 +4407,12 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B281" t="s">
-        <v>38</v>
-      </c>
-      <c r="C281" t="s">
+        <v>26</v>
+      </c>
+      <c r="C281">
         <v>4</v>
       </c>
       <c r="D281">
@@ -4457,12 +4421,12 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B282" t="s">
-        <v>38</v>
-      </c>
-      <c r="C282" t="s">
+        <v>26</v>
+      </c>
+      <c r="C282">
         <v>5</v>
       </c>
       <c r="D282">
@@ -4471,12 +4435,12 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B283" t="s">
-        <v>38</v>
-      </c>
-      <c r="C283" t="s">
+        <v>26</v>
+      </c>
+      <c r="C283">
         <v>6</v>
       </c>
       <c r="D283">
@@ -4485,12 +4449,12 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B284" t="s">
-        <v>38</v>
-      </c>
-      <c r="C284" t="s">
+        <v>26</v>
+      </c>
+      <c r="C284">
         <v>7</v>
       </c>
       <c r="D284">
@@ -4499,12 +4463,12 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B285" t="s">
-        <v>38</v>
-      </c>
-      <c r="C285" t="s">
+        <v>26</v>
+      </c>
+      <c r="C285">
         <v>8</v>
       </c>
       <c r="D285">
@@ -4513,12 +4477,12 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B286" t="s">
-        <v>38</v>
-      </c>
-      <c r="C286" t="s">
+        <v>26</v>
+      </c>
+      <c r="C286">
         <v>9</v>
       </c>
       <c r="D286">
@@ -4527,12 +4491,12 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B287" t="s">
-        <v>38</v>
-      </c>
-      <c r="C287" t="s">
+        <v>26</v>
+      </c>
+      <c r="C287">
         <v>10</v>
       </c>
       <c r="D287">
@@ -4541,12 +4505,12 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B288" t="s">
-        <v>38</v>
-      </c>
-      <c r="C288" t="s">
+        <v>26</v>
+      </c>
+      <c r="C288">
         <v>11</v>
       </c>
       <c r="D288">
@@ -4555,12 +4519,12 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B289" t="s">
-        <v>38</v>
-      </c>
-      <c r="C289" t="s">
+        <v>26</v>
+      </c>
+      <c r="C289">
         <v>12</v>
       </c>
       <c r="D289">
@@ -4569,12 +4533,12 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B290" t="s">
-        <v>15</v>
-      </c>
-      <c r="C290" t="s">
+        <v>3</v>
+      </c>
+      <c r="C290">
         <v>1</v>
       </c>
       <c r="D290">
@@ -4583,12 +4547,12 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B291" t="s">
-        <v>15</v>
-      </c>
-      <c r="C291" t="s">
+        <v>3</v>
+      </c>
+      <c r="C291">
         <v>2</v>
       </c>
       <c r="D291">
@@ -4597,12 +4561,12 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B292" t="s">
-        <v>15</v>
-      </c>
-      <c r="C292" t="s">
+        <v>3</v>
+      </c>
+      <c r="C292">
         <v>3</v>
       </c>
       <c r="D292">
@@ -4611,12 +4575,12 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B293" t="s">
-        <v>15</v>
-      </c>
-      <c r="C293" t="s">
+        <v>3</v>
+      </c>
+      <c r="C293">
         <v>4</v>
       </c>
       <c r="D293">
@@ -4625,12 +4589,12 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B294" t="s">
-        <v>15</v>
-      </c>
-      <c r="C294" t="s">
+        <v>3</v>
+      </c>
+      <c r="C294">
         <v>5</v>
       </c>
       <c r="D294">
@@ -4639,12 +4603,12 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B295" t="s">
-        <v>15</v>
-      </c>
-      <c r="C295" t="s">
+        <v>3</v>
+      </c>
+      <c r="C295">
         <v>6</v>
       </c>
       <c r="D295">
@@ -4653,12 +4617,12 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B296" t="s">
-        <v>15</v>
-      </c>
-      <c r="C296" t="s">
+        <v>3</v>
+      </c>
+      <c r="C296">
         <v>7</v>
       </c>
       <c r="D296">
@@ -4667,12 +4631,12 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B297" t="s">
-        <v>15</v>
-      </c>
-      <c r="C297" t="s">
+        <v>3</v>
+      </c>
+      <c r="C297">
         <v>8</v>
       </c>
       <c r="D297">
@@ -4681,12 +4645,12 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B298" t="s">
-        <v>15</v>
-      </c>
-      <c r="C298" t="s">
+        <v>3</v>
+      </c>
+      <c r="C298">
         <v>9</v>
       </c>
       <c r="D298">
@@ -4695,12 +4659,12 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B299" t="s">
-        <v>15</v>
-      </c>
-      <c r="C299" t="s">
+        <v>3</v>
+      </c>
+      <c r="C299">
         <v>10</v>
       </c>
       <c r="D299">
@@ -4709,12 +4673,12 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B300" t="s">
-        <v>15</v>
-      </c>
-      <c r="C300" t="s">
+        <v>3</v>
+      </c>
+      <c r="C300">
         <v>11</v>
       </c>
       <c r="D300">
@@ -4723,12 +4687,12 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B301" t="s">
-        <v>15</v>
-      </c>
-      <c r="C301" t="s">
+        <v>3</v>
+      </c>
+      <c r="C301">
         <v>12</v>
       </c>
       <c r="D301">
@@ -4737,12 +4701,12 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B302" t="s">
-        <v>16</v>
-      </c>
-      <c r="C302" t="s">
+        <v>4</v>
+      </c>
+      <c r="C302">
         <v>1</v>
       </c>
       <c r="D302">
@@ -4751,12 +4715,12 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B303" t="s">
-        <v>16</v>
-      </c>
-      <c r="C303" t="s">
+        <v>4</v>
+      </c>
+      <c r="C303">
         <v>2</v>
       </c>
       <c r="D303">
@@ -4765,12 +4729,12 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B304" t="s">
-        <v>16</v>
-      </c>
-      <c r="C304" t="s">
+        <v>4</v>
+      </c>
+      <c r="C304">
         <v>3</v>
       </c>
       <c r="D304">
@@ -4779,12 +4743,12 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B305" t="s">
-        <v>16</v>
-      </c>
-      <c r="C305" t="s">
+        <v>4</v>
+      </c>
+      <c r="C305">
         <v>4</v>
       </c>
       <c r="D305">
@@ -4793,12 +4757,12 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B306" t="s">
-        <v>16</v>
-      </c>
-      <c r="C306" t="s">
+        <v>4</v>
+      </c>
+      <c r="C306">
         <v>5</v>
       </c>
       <c r="D306">
@@ -4807,12 +4771,12 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B307" t="s">
-        <v>16</v>
-      </c>
-      <c r="C307" t="s">
+        <v>4</v>
+      </c>
+      <c r="C307">
         <v>6</v>
       </c>
       <c r="D307">
@@ -4821,12 +4785,12 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B308" t="s">
-        <v>16</v>
-      </c>
-      <c r="C308" t="s">
+        <v>4</v>
+      </c>
+      <c r="C308">
         <v>7</v>
       </c>
       <c r="D308">
@@ -4835,12 +4799,12 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B309" t="s">
-        <v>16</v>
-      </c>
-      <c r="C309" t="s">
+        <v>4</v>
+      </c>
+      <c r="C309">
         <v>8</v>
       </c>
       <c r="D309">
@@ -4849,12 +4813,12 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B310" t="s">
-        <v>16</v>
-      </c>
-      <c r="C310" t="s">
+        <v>4</v>
+      </c>
+      <c r="C310">
         <v>9</v>
       </c>
       <c r="D310">
@@ -4863,12 +4827,12 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B311" t="s">
-        <v>16</v>
-      </c>
-      <c r="C311" t="s">
+        <v>4</v>
+      </c>
+      <c r="C311">
         <v>10</v>
       </c>
       <c r="D311">
@@ -4877,12 +4841,12 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B312" t="s">
-        <v>16</v>
-      </c>
-      <c r="C312" t="s">
+        <v>4</v>
+      </c>
+      <c r="C312">
         <v>11</v>
       </c>
       <c r="D312">
@@ -4891,12 +4855,12 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B313" t="s">
-        <v>16</v>
-      </c>
-      <c r="C313" t="s">
+        <v>4</v>
+      </c>
+      <c r="C313">
         <v>12</v>
       </c>
       <c r="D313">
@@ -4905,12 +4869,12 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B314" t="s">
-        <v>17</v>
-      </c>
-      <c r="C314" t="s">
+        <v>5</v>
+      </c>
+      <c r="C314">
         <v>1</v>
       </c>
       <c r="D314">
@@ -4919,12 +4883,12 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B315" t="s">
-        <v>17</v>
-      </c>
-      <c r="C315" t="s">
+        <v>5</v>
+      </c>
+      <c r="C315">
         <v>2</v>
       </c>
       <c r="D315">
@@ -4933,12 +4897,12 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B316" t="s">
-        <v>17</v>
-      </c>
-      <c r="C316" t="s">
+        <v>5</v>
+      </c>
+      <c r="C316">
         <v>3</v>
       </c>
       <c r="D316">
@@ -4947,12 +4911,12 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B317" t="s">
-        <v>17</v>
-      </c>
-      <c r="C317" t="s">
+        <v>5</v>
+      </c>
+      <c r="C317">
         <v>4</v>
       </c>
       <c r="D317">
@@ -4961,12 +4925,12 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B318" t="s">
-        <v>17</v>
-      </c>
-      <c r="C318" t="s">
+        <v>5</v>
+      </c>
+      <c r="C318">
         <v>5</v>
       </c>
       <c r="D318">
@@ -4975,12 +4939,12 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B319" t="s">
-        <v>17</v>
-      </c>
-      <c r="C319" t="s">
+        <v>5</v>
+      </c>
+      <c r="C319">
         <v>6</v>
       </c>
       <c r="D319">
@@ -4989,12 +4953,12 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B320" t="s">
-        <v>17</v>
-      </c>
-      <c r="C320" t="s">
+        <v>5</v>
+      </c>
+      <c r="C320">
         <v>7</v>
       </c>
       <c r="D320">
@@ -5003,12 +4967,12 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B321" t="s">
-        <v>17</v>
-      </c>
-      <c r="C321" t="s">
+        <v>5</v>
+      </c>
+      <c r="C321">
         <v>8</v>
       </c>
       <c r="D321">
@@ -5017,12 +4981,12 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B322" t="s">
-        <v>17</v>
-      </c>
-      <c r="C322" t="s">
+        <v>5</v>
+      </c>
+      <c r="C322">
         <v>9</v>
       </c>
       <c r="D322">
@@ -5031,12 +4995,12 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B323" t="s">
-        <v>17</v>
-      </c>
-      <c r="C323" t="s">
+        <v>5</v>
+      </c>
+      <c r="C323">
         <v>10</v>
       </c>
       <c r="D323">
@@ -5045,12 +5009,12 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B324" t="s">
-        <v>17</v>
-      </c>
-      <c r="C324" t="s">
+        <v>5</v>
+      </c>
+      <c r="C324">
         <v>11</v>
       </c>
       <c r="D324">
@@ -5059,12 +5023,12 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B325" t="s">
-        <v>17</v>
-      </c>
-      <c r="C325" t="s">
+        <v>5</v>
+      </c>
+      <c r="C325">
         <v>12</v>
       </c>
       <c r="D325">
@@ -5073,12 +5037,12 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B326" t="s">
-        <v>18</v>
-      </c>
-      <c r="C326" t="s">
+        <v>6</v>
+      </c>
+      <c r="C326">
         <v>1</v>
       </c>
       <c r="D326">
@@ -5087,12 +5051,12 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B327" t="s">
-        <v>18</v>
-      </c>
-      <c r="C327" t="s">
+        <v>6</v>
+      </c>
+      <c r="C327">
         <v>2</v>
       </c>
       <c r="D327">
@@ -5101,12 +5065,12 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B328" t="s">
-        <v>18</v>
-      </c>
-      <c r="C328" t="s">
+        <v>6</v>
+      </c>
+      <c r="C328">
         <v>3</v>
       </c>
       <c r="D328">
@@ -5115,12 +5079,12 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B329" t="s">
-        <v>18</v>
-      </c>
-      <c r="C329" t="s">
+        <v>6</v>
+      </c>
+      <c r="C329">
         <v>4</v>
       </c>
       <c r="D329">
@@ -5129,12 +5093,12 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B330" t="s">
-        <v>18</v>
-      </c>
-      <c r="C330" t="s">
+        <v>6</v>
+      </c>
+      <c r="C330">
         <v>5</v>
       </c>
       <c r="D330">
@@ -5143,12 +5107,12 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B331" t="s">
-        <v>18</v>
-      </c>
-      <c r="C331" t="s">
+        <v>6</v>
+      </c>
+      <c r="C331">
         <v>6</v>
       </c>
       <c r="D331">
@@ -5157,12 +5121,12 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B332" t="s">
-        <v>18</v>
-      </c>
-      <c r="C332" t="s">
+        <v>6</v>
+      </c>
+      <c r="C332">
         <v>7</v>
       </c>
       <c r="D332">
@@ -5171,12 +5135,12 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B333" t="s">
-        <v>18</v>
-      </c>
-      <c r="C333" t="s">
+        <v>6</v>
+      </c>
+      <c r="C333">
         <v>8</v>
       </c>
       <c r="D333">
@@ -5185,12 +5149,12 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B334" t="s">
-        <v>18</v>
-      </c>
-      <c r="C334" t="s">
+        <v>6</v>
+      </c>
+      <c r="C334">
         <v>9</v>
       </c>
       <c r="D334">
@@ -5199,12 +5163,12 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B335" t="s">
-        <v>18</v>
-      </c>
-      <c r="C335" t="s">
+        <v>6</v>
+      </c>
+      <c r="C335">
         <v>10</v>
       </c>
       <c r="D335">
@@ -5213,12 +5177,12 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B336" t="s">
-        <v>18</v>
-      </c>
-      <c r="C336" t="s">
+        <v>6</v>
+      </c>
+      <c r="C336">
         <v>11</v>
       </c>
       <c r="D336">
@@ -5227,12 +5191,12 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B337" t="s">
-        <v>18</v>
-      </c>
-      <c r="C337" t="s">
+        <v>6</v>
+      </c>
+      <c r="C337">
         <v>12</v>
       </c>
       <c r="D337">
@@ -5241,12 +5205,12 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B338" t="s">
-        <v>19</v>
-      </c>
-      <c r="C338" t="s">
+        <v>7</v>
+      </c>
+      <c r="C338">
         <v>1</v>
       </c>
       <c r="D338">
@@ -5255,12 +5219,12 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B339" t="s">
-        <v>19</v>
-      </c>
-      <c r="C339" t="s">
+        <v>7</v>
+      </c>
+      <c r="C339">
         <v>2</v>
       </c>
       <c r="D339">
@@ -5269,12 +5233,12 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B340" t="s">
-        <v>19</v>
-      </c>
-      <c r="C340" t="s">
+        <v>7</v>
+      </c>
+      <c r="C340">
         <v>3</v>
       </c>
       <c r="D340">
@@ -5283,12 +5247,12 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B341" t="s">
-        <v>19</v>
-      </c>
-      <c r="C341" t="s">
+        <v>7</v>
+      </c>
+      <c r="C341">
         <v>4</v>
       </c>
       <c r="D341">
@@ -5297,12 +5261,12 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B342" t="s">
-        <v>19</v>
-      </c>
-      <c r="C342" t="s">
+        <v>7</v>
+      </c>
+      <c r="C342">
         <v>5</v>
       </c>
       <c r="D342">
@@ -5311,12 +5275,12 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B343" t="s">
-        <v>19</v>
-      </c>
-      <c r="C343" t="s">
+        <v>7</v>
+      </c>
+      <c r="C343">
         <v>6</v>
       </c>
       <c r="D343">
@@ -5325,12 +5289,12 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B344" t="s">
-        <v>19</v>
-      </c>
-      <c r="C344" t="s">
+        <v>7</v>
+      </c>
+      <c r="C344">
         <v>7</v>
       </c>
       <c r="D344">
@@ -5339,12 +5303,12 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B345" t="s">
-        <v>19</v>
-      </c>
-      <c r="C345" t="s">
+        <v>7</v>
+      </c>
+      <c r="C345">
         <v>8</v>
       </c>
       <c r="D345">
@@ -5353,12 +5317,12 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B346" t="s">
-        <v>19</v>
-      </c>
-      <c r="C346" t="s">
+        <v>7</v>
+      </c>
+      <c r="C346">
         <v>9</v>
       </c>
       <c r="D346">
@@ -5367,12 +5331,12 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B347" t="s">
-        <v>19</v>
-      </c>
-      <c r="C347" t="s">
+        <v>7</v>
+      </c>
+      <c r="C347">
         <v>10</v>
       </c>
       <c r="D347">
@@ -5381,12 +5345,12 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B348" t="s">
-        <v>19</v>
-      </c>
-      <c r="C348" t="s">
+        <v>7</v>
+      </c>
+      <c r="C348">
         <v>11</v>
       </c>
       <c r="D348">
@@ -5395,12 +5359,12 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B349" t="s">
-        <v>19</v>
-      </c>
-      <c r="C349" t="s">
+        <v>7</v>
+      </c>
+      <c r="C349">
         <v>12</v>
       </c>
       <c r="D349">
@@ -5409,12 +5373,12 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B350" t="s">
-        <v>20</v>
-      </c>
-      <c r="C350" t="s">
+        <v>8</v>
+      </c>
+      <c r="C350">
         <v>1</v>
       </c>
       <c r="D350">
@@ -5423,12 +5387,12 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B351" t="s">
-        <v>20</v>
-      </c>
-      <c r="C351" t="s">
+        <v>8</v>
+      </c>
+      <c r="C351">
         <v>2</v>
       </c>
       <c r="D351">
@@ -5437,12 +5401,12 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B352" t="s">
-        <v>20</v>
-      </c>
-      <c r="C352" t="s">
+        <v>8</v>
+      </c>
+      <c r="C352">
         <v>3</v>
       </c>
       <c r="D352">
@@ -5451,12 +5415,12 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B353" t="s">
-        <v>20</v>
-      </c>
-      <c r="C353" t="s">
+        <v>8</v>
+      </c>
+      <c r="C353">
         <v>4</v>
       </c>
       <c r="D353">
@@ -5465,12 +5429,12 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B354" t="s">
-        <v>20</v>
-      </c>
-      <c r="C354" t="s">
+        <v>8</v>
+      </c>
+      <c r="C354">
         <v>5</v>
       </c>
       <c r="D354">
@@ -5479,12 +5443,12 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B355" t="s">
-        <v>20</v>
-      </c>
-      <c r="C355" t="s">
+        <v>8</v>
+      </c>
+      <c r="C355">
         <v>6</v>
       </c>
       <c r="D355">
@@ -5493,12 +5457,12 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B356" t="s">
-        <v>20</v>
-      </c>
-      <c r="C356" t="s">
+        <v>8</v>
+      </c>
+      <c r="C356">
         <v>7</v>
       </c>
       <c r="D356">
@@ -5507,12 +5471,12 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B357" t="s">
-        <v>20</v>
-      </c>
-      <c r="C357" t="s">
+        <v>8</v>
+      </c>
+      <c r="C357">
         <v>8</v>
       </c>
       <c r="D357">
@@ -5521,12 +5485,12 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B358" t="s">
-        <v>20</v>
-      </c>
-      <c r="C358" t="s">
+        <v>8</v>
+      </c>
+      <c r="C358">
         <v>9</v>
       </c>
       <c r="D358">
@@ -5535,12 +5499,12 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B359" t="s">
-        <v>20</v>
-      </c>
-      <c r="C359" t="s">
+        <v>8</v>
+      </c>
+      <c r="C359">
         <v>10</v>
       </c>
       <c r="D359">
@@ -5549,12 +5513,12 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B360" t="s">
-        <v>20</v>
-      </c>
-      <c r="C360" t="s">
+        <v>8</v>
+      </c>
+      <c r="C360">
         <v>11</v>
       </c>
       <c r="D360">
@@ -5563,12 +5527,12 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B361" t="s">
-        <v>20</v>
-      </c>
-      <c r="C361" t="s">
+        <v>8</v>
+      </c>
+      <c r="C361">
         <v>12</v>
       </c>
       <c r="D361">
@@ -5577,12 +5541,12 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B362" t="s">
-        <v>21</v>
-      </c>
-      <c r="C362" t="s">
+        <v>9</v>
+      </c>
+      <c r="C362">
         <v>1</v>
       </c>
       <c r="D362">
@@ -5591,12 +5555,12 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B363" t="s">
-        <v>21</v>
-      </c>
-      <c r="C363" t="s">
+        <v>9</v>
+      </c>
+      <c r="C363">
         <v>2</v>
       </c>
       <c r="D363">
@@ -5605,12 +5569,12 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B364" t="s">
-        <v>21</v>
-      </c>
-      <c r="C364" t="s">
+        <v>9</v>
+      </c>
+      <c r="C364">
         <v>3</v>
       </c>
       <c r="D364">
@@ -5619,12 +5583,12 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B365" t="s">
-        <v>21</v>
-      </c>
-      <c r="C365" t="s">
+        <v>9</v>
+      </c>
+      <c r="C365">
         <v>4</v>
       </c>
       <c r="D365">
@@ -5633,12 +5597,12 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B366" t="s">
-        <v>21</v>
-      </c>
-      <c r="C366" t="s">
+        <v>9</v>
+      </c>
+      <c r="C366">
         <v>5</v>
       </c>
       <c r="D366">
@@ -5647,12 +5611,12 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B367" t="s">
-        <v>21</v>
-      </c>
-      <c r="C367" t="s">
+        <v>9</v>
+      </c>
+      <c r="C367">
         <v>6</v>
       </c>
       <c r="D367">
@@ -5661,12 +5625,12 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B368" t="s">
-        <v>21</v>
-      </c>
-      <c r="C368" t="s">
+        <v>9</v>
+      </c>
+      <c r="C368">
         <v>7</v>
       </c>
       <c r="D368">
@@ -5675,12 +5639,12 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B369" t="s">
-        <v>21</v>
-      </c>
-      <c r="C369" t="s">
+        <v>9</v>
+      </c>
+      <c r="C369">
         <v>8</v>
       </c>
       <c r="D369">
@@ -5689,12 +5653,12 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B370" t="s">
-        <v>21</v>
-      </c>
-      <c r="C370" t="s">
+        <v>9</v>
+      </c>
+      <c r="C370">
         <v>9</v>
       </c>
       <c r="D370">
@@ -5703,12 +5667,12 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B371" t="s">
-        <v>21</v>
-      </c>
-      <c r="C371" t="s">
+        <v>9</v>
+      </c>
+      <c r="C371">
         <v>10</v>
       </c>
       <c r="D371">
@@ -5717,12 +5681,12 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B372" t="s">
-        <v>21</v>
-      </c>
-      <c r="C372" t="s">
+        <v>9</v>
+      </c>
+      <c r="C372">
         <v>11</v>
       </c>
       <c r="D372">
@@ -5731,12 +5695,12 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B373" t="s">
-        <v>21</v>
-      </c>
-      <c r="C373" t="s">
+        <v>9</v>
+      </c>
+      <c r="C373">
         <v>12</v>
       </c>
       <c r="D373">
@@ -5745,12 +5709,12 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B374" t="s">
-        <v>22</v>
-      </c>
-      <c r="C374" t="s">
+        <v>10</v>
+      </c>
+      <c r="C374">
         <v>1</v>
       </c>
       <c r="D374">
@@ -5759,12 +5723,12 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B375" t="s">
-        <v>22</v>
-      </c>
-      <c r="C375" t="s">
+        <v>10</v>
+      </c>
+      <c r="C375">
         <v>2</v>
       </c>
       <c r="D375">
@@ -5773,12 +5737,12 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B376" t="s">
-        <v>22</v>
-      </c>
-      <c r="C376" t="s">
+        <v>10</v>
+      </c>
+      <c r="C376">
         <v>3</v>
       </c>
       <c r="D376">
@@ -5787,12 +5751,12 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B377" t="s">
-        <v>22</v>
-      </c>
-      <c r="C377" t="s">
+        <v>10</v>
+      </c>
+      <c r="C377">
         <v>4</v>
       </c>
       <c r="D377">
@@ -5801,12 +5765,12 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B378" t="s">
-        <v>22</v>
-      </c>
-      <c r="C378" t="s">
+        <v>10</v>
+      </c>
+      <c r="C378">
         <v>5</v>
       </c>
       <c r="D378">
@@ -5815,12 +5779,12 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B379" t="s">
-        <v>22</v>
-      </c>
-      <c r="C379" t="s">
+        <v>10</v>
+      </c>
+      <c r="C379">
         <v>6</v>
       </c>
       <c r="D379">
@@ -5829,12 +5793,12 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B380" t="s">
-        <v>22</v>
-      </c>
-      <c r="C380" t="s">
+        <v>10</v>
+      </c>
+      <c r="C380">
         <v>7</v>
       </c>
       <c r="D380">
@@ -5843,12 +5807,12 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B381" t="s">
-        <v>22</v>
-      </c>
-      <c r="C381" t="s">
+        <v>10</v>
+      </c>
+      <c r="C381">
         <v>8</v>
       </c>
       <c r="D381">
@@ -5857,12 +5821,12 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B382" t="s">
-        <v>22</v>
-      </c>
-      <c r="C382" t="s">
+        <v>10</v>
+      </c>
+      <c r="C382">
         <v>9</v>
       </c>
       <c r="D382">
@@ -5871,12 +5835,12 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B383" t="s">
-        <v>22</v>
-      </c>
-      <c r="C383" t="s">
+        <v>10</v>
+      </c>
+      <c r="C383">
         <v>10</v>
       </c>
       <c r="D383">
@@ -5885,12 +5849,12 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B384" t="s">
-        <v>22</v>
-      </c>
-      <c r="C384" t="s">
+        <v>10</v>
+      </c>
+      <c r="C384">
         <v>11</v>
       </c>
       <c r="D384">
@@ -5899,12 +5863,12 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B385" t="s">
-        <v>22</v>
-      </c>
-      <c r="C385" t="s">
+        <v>10</v>
+      </c>
+      <c r="C385">
         <v>12</v>
       </c>
       <c r="D385">
@@ -5913,12 +5877,12 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B386" t="s">
-        <v>23</v>
-      </c>
-      <c r="C386" t="s">
+        <v>11</v>
+      </c>
+      <c r="C386">
         <v>1</v>
       </c>
       <c r="D386">
@@ -5927,12 +5891,12 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B387" t="s">
-        <v>23</v>
-      </c>
-      <c r="C387" t="s">
+        <v>11</v>
+      </c>
+      <c r="C387">
         <v>2</v>
       </c>
       <c r="D387">
@@ -5941,12 +5905,12 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B388" t="s">
-        <v>23</v>
-      </c>
-      <c r="C388" t="s">
+        <v>11</v>
+      </c>
+      <c r="C388">
         <v>3</v>
       </c>
       <c r="D388">
@@ -5955,12 +5919,12 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B389" t="s">
-        <v>23</v>
-      </c>
-      <c r="C389" t="s">
+        <v>11</v>
+      </c>
+      <c r="C389">
         <v>4</v>
       </c>
       <c r="D389">
@@ -5969,12 +5933,12 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B390" t="s">
-        <v>23</v>
-      </c>
-      <c r="C390" t="s">
+        <v>11</v>
+      </c>
+      <c r="C390">
         <v>5</v>
       </c>
       <c r="D390">
@@ -5983,12 +5947,12 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B391" t="s">
-        <v>23</v>
-      </c>
-      <c r="C391" t="s">
+        <v>11</v>
+      </c>
+      <c r="C391">
         <v>6</v>
       </c>
       <c r="D391">
@@ -5997,12 +5961,12 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B392" t="s">
-        <v>23</v>
-      </c>
-      <c r="C392" t="s">
+        <v>11</v>
+      </c>
+      <c r="C392">
         <v>7</v>
       </c>
       <c r="D392">
@@ -6011,12 +5975,12 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B393" t="s">
-        <v>23</v>
-      </c>
-      <c r="C393" t="s">
+        <v>11</v>
+      </c>
+      <c r="C393">
         <v>8</v>
       </c>
       <c r="D393">
@@ -6025,12 +5989,12 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B394" t="s">
-        <v>23</v>
-      </c>
-      <c r="C394" t="s">
+        <v>11</v>
+      </c>
+      <c r="C394">
         <v>9</v>
       </c>
       <c r="D394">
@@ -6039,12 +6003,12 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B395" t="s">
-        <v>23</v>
-      </c>
-      <c r="C395" t="s">
+        <v>11</v>
+      </c>
+      <c r="C395">
         <v>10</v>
       </c>
       <c r="D395">
@@ -6053,12 +6017,12 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B396" t="s">
-        <v>23</v>
-      </c>
-      <c r="C396" t="s">
+        <v>11</v>
+      </c>
+      <c r="C396">
         <v>11</v>
       </c>
       <c r="D396">
@@ -6067,12 +6031,12 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B397" t="s">
-        <v>23</v>
-      </c>
-      <c r="C397" t="s">
+        <v>11</v>
+      </c>
+      <c r="C397">
         <v>12</v>
       </c>
       <c r="D397">
@@ -6081,12 +6045,12 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B398" t="s">
-        <v>24</v>
-      </c>
-      <c r="C398" t="s">
+        <v>12</v>
+      </c>
+      <c r="C398">
         <v>1</v>
       </c>
       <c r="D398">
@@ -6095,12 +6059,12 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B399" t="s">
-        <v>24</v>
-      </c>
-      <c r="C399" t="s">
+        <v>12</v>
+      </c>
+      <c r="C399">
         <v>2</v>
       </c>
       <c r="D399">
@@ -6109,12 +6073,12 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B400" t="s">
-        <v>24</v>
-      </c>
-      <c r="C400" t="s">
+        <v>12</v>
+      </c>
+      <c r="C400">
         <v>3</v>
       </c>
       <c r="D400">
@@ -6123,12 +6087,12 @@
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B401" t="s">
-        <v>24</v>
-      </c>
-      <c r="C401" t="s">
+        <v>12</v>
+      </c>
+      <c r="C401">
         <v>4</v>
       </c>
       <c r="D401">
@@ -6137,12 +6101,12 @@
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B402" t="s">
-        <v>24</v>
-      </c>
-      <c r="C402" t="s">
+        <v>12</v>
+      </c>
+      <c r="C402">
         <v>5</v>
       </c>
       <c r="D402">
@@ -6151,12 +6115,12 @@
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B403" t="s">
-        <v>24</v>
-      </c>
-      <c r="C403" t="s">
+        <v>12</v>
+      </c>
+      <c r="C403">
         <v>6</v>
       </c>
       <c r="D403">
@@ -6165,12 +6129,12 @@
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B404" t="s">
-        <v>24</v>
-      </c>
-      <c r="C404" t="s">
+        <v>12</v>
+      </c>
+      <c r="C404">
         <v>7</v>
       </c>
       <c r="D404">
@@ -6179,12 +6143,12 @@
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B405" t="s">
-        <v>24</v>
-      </c>
-      <c r="C405" t="s">
+        <v>12</v>
+      </c>
+      <c r="C405">
         <v>8</v>
       </c>
       <c r="D405">
@@ -6193,12 +6157,12 @@
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B406" t="s">
-        <v>24</v>
-      </c>
-      <c r="C406" t="s">
+        <v>12</v>
+      </c>
+      <c r="C406">
         <v>9</v>
       </c>
       <c r="D406">
@@ -6207,12 +6171,12 @@
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B407" t="s">
-        <v>24</v>
-      </c>
-      <c r="C407" t="s">
+        <v>12</v>
+      </c>
+      <c r="C407">
         <v>10</v>
       </c>
       <c r="D407">
@@ -6221,12 +6185,12 @@
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B408" t="s">
-        <v>24</v>
-      </c>
-      <c r="C408" t="s">
+        <v>12</v>
+      </c>
+      <c r="C408">
         <v>11</v>
       </c>
       <c r="D408">
@@ -6235,12 +6199,12 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B409" t="s">
-        <v>24</v>
-      </c>
-      <c r="C409" t="s">
+        <v>12</v>
+      </c>
+      <c r="C409">
         <v>12</v>
       </c>
       <c r="D409">
@@ -6249,12 +6213,12 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B410" t="s">
-        <v>25</v>
-      </c>
-      <c r="C410" t="s">
+        <v>13</v>
+      </c>
+      <c r="C410">
         <v>1</v>
       </c>
       <c r="D410">
@@ -6263,12 +6227,12 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B411" t="s">
-        <v>25</v>
-      </c>
-      <c r="C411" t="s">
+        <v>13</v>
+      </c>
+      <c r="C411">
         <v>2</v>
       </c>
       <c r="D411">
@@ -6277,12 +6241,12 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B412" t="s">
-        <v>25</v>
-      </c>
-      <c r="C412" t="s">
+        <v>13</v>
+      </c>
+      <c r="C412">
         <v>3</v>
       </c>
       <c r="D412">
@@ -6291,12 +6255,12 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B413" t="s">
-        <v>25</v>
-      </c>
-      <c r="C413" t="s">
+        <v>13</v>
+      </c>
+      <c r="C413">
         <v>4</v>
       </c>
       <c r="D413">
@@ -6305,12 +6269,12 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B414" t="s">
-        <v>25</v>
-      </c>
-      <c r="C414" t="s">
+        <v>13</v>
+      </c>
+      <c r="C414">
         <v>5</v>
       </c>
       <c r="D414">
@@ -6319,12 +6283,12 @@
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B415" t="s">
-        <v>25</v>
-      </c>
-      <c r="C415" t="s">
+        <v>13</v>
+      </c>
+      <c r="C415">
         <v>6</v>
       </c>
       <c r="D415">
@@ -6333,12 +6297,12 @@
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B416" t="s">
-        <v>25</v>
-      </c>
-      <c r="C416" t="s">
+        <v>13</v>
+      </c>
+      <c r="C416">
         <v>7</v>
       </c>
       <c r="D416">
@@ -6347,12 +6311,12 @@
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B417" t="s">
-        <v>25</v>
-      </c>
-      <c r="C417" t="s">
+        <v>13</v>
+      </c>
+      <c r="C417">
         <v>8</v>
       </c>
       <c r="D417">
@@ -6361,12 +6325,12 @@
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B418" t="s">
-        <v>25</v>
-      </c>
-      <c r="C418" t="s">
+        <v>13</v>
+      </c>
+      <c r="C418">
         <v>9</v>
       </c>
       <c r="D418">
@@ -6375,12 +6339,12 @@
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B419" t="s">
-        <v>25</v>
-      </c>
-      <c r="C419" t="s">
+        <v>13</v>
+      </c>
+      <c r="C419">
         <v>10</v>
       </c>
       <c r="D419">
@@ -6389,12 +6353,12 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B420" t="s">
-        <v>25</v>
-      </c>
-      <c r="C420" t="s">
+        <v>13</v>
+      </c>
+      <c r="C420">
         <v>11</v>
       </c>
       <c r="D420">
@@ -6403,12 +6367,12 @@
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B421" t="s">
-        <v>25</v>
-      </c>
-      <c r="C421" t="s">
+        <v>13</v>
+      </c>
+      <c r="C421">
         <v>12</v>
       </c>
       <c r="D421">
@@ -6417,12 +6381,12 @@
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
+        <v>2</v>
+      </c>
+      <c r="B422" t="s">
         <v>14</v>
       </c>
-      <c r="B422" t="s">
-        <v>26</v>
-      </c>
-      <c r="C422" t="s">
+      <c r="C422">
         <v>1</v>
       </c>
       <c r="D422">
@@ -6431,12 +6395,12 @@
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
+        <v>2</v>
+      </c>
+      <c r="B423" t="s">
         <v>14</v>
       </c>
-      <c r="B423" t="s">
-        <v>26</v>
-      </c>
-      <c r="C423" t="s">
+      <c r="C423">
         <v>2</v>
       </c>
       <c r="D423">
@@ -6445,12 +6409,12 @@
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
+        <v>2</v>
+      </c>
+      <c r="B424" t="s">
         <v>14</v>
       </c>
-      <c r="B424" t="s">
-        <v>26</v>
-      </c>
-      <c r="C424" t="s">
+      <c r="C424">
         <v>3</v>
       </c>
       <c r="D424">
@@ -6459,12 +6423,12 @@
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
+        <v>2</v>
+      </c>
+      <c r="B425" t="s">
         <v>14</v>
       </c>
-      <c r="B425" t="s">
-        <v>26</v>
-      </c>
-      <c r="C425" t="s">
+      <c r="C425">
         <v>4</v>
       </c>
       <c r="D425">
@@ -6473,12 +6437,12 @@
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
+        <v>2</v>
+      </c>
+      <c r="B426" t="s">
         <v>14</v>
       </c>
-      <c r="B426" t="s">
-        <v>26</v>
-      </c>
-      <c r="C426" t="s">
+      <c r="C426">
         <v>5</v>
       </c>
       <c r="D426">
@@ -6487,12 +6451,12 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
+        <v>2</v>
+      </c>
+      <c r="B427" t="s">
         <v>14</v>
       </c>
-      <c r="B427" t="s">
-        <v>26</v>
-      </c>
-      <c r="C427" t="s">
+      <c r="C427">
         <v>6</v>
       </c>
       <c r="D427">
@@ -6501,12 +6465,12 @@
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
+        <v>2</v>
+      </c>
+      <c r="B428" t="s">
         <v>14</v>
       </c>
-      <c r="B428" t="s">
-        <v>26</v>
-      </c>
-      <c r="C428" t="s">
+      <c r="C428">
         <v>7</v>
       </c>
       <c r="D428">
@@ -6515,12 +6479,12 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
+        <v>2</v>
+      </c>
+      <c r="B429" t="s">
         <v>14</v>
       </c>
-      <c r="B429" t="s">
-        <v>26</v>
-      </c>
-      <c r="C429" t="s">
+      <c r="C429">
         <v>8</v>
       </c>
       <c r="D429">
@@ -6529,12 +6493,12 @@
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
+        <v>2</v>
+      </c>
+      <c r="B430" t="s">
         <v>14</v>
       </c>
-      <c r="B430" t="s">
-        <v>26</v>
-      </c>
-      <c r="C430" t="s">
+      <c r="C430">
         <v>9</v>
       </c>
       <c r="D430">
@@ -6543,12 +6507,12 @@
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
+        <v>2</v>
+      </c>
+      <c r="B431" t="s">
         <v>14</v>
       </c>
-      <c r="B431" t="s">
-        <v>26</v>
-      </c>
-      <c r="C431" t="s">
+      <c r="C431">
         <v>10</v>
       </c>
       <c r="D431">
@@ -6557,12 +6521,12 @@
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
+        <v>2</v>
+      </c>
+      <c r="B432" t="s">
         <v>14</v>
       </c>
-      <c r="B432" t="s">
-        <v>26</v>
-      </c>
-      <c r="C432" t="s">
+      <c r="C432">
         <v>11</v>
       </c>
       <c r="D432">
@@ -6571,12 +6535,12 @@
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
+        <v>2</v>
+      </c>
+      <c r="B433" t="s">
         <v>14</v>
       </c>
-      <c r="B433" t="s">
-        <v>26</v>
-      </c>
-      <c r="C433" t="s">
+      <c r="C433">
         <v>12</v>
       </c>
       <c r="D433">
@@ -6585,12 +6549,12 @@
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B434" t="s">
-        <v>27</v>
-      </c>
-      <c r="C434" t="s">
+        <v>15</v>
+      </c>
+      <c r="C434">
         <v>1</v>
       </c>
       <c r="D434">
@@ -6599,12 +6563,12 @@
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B435" t="s">
-        <v>27</v>
-      </c>
-      <c r="C435" t="s">
+        <v>15</v>
+      </c>
+      <c r="C435">
         <v>2</v>
       </c>
       <c r="D435">
@@ -6613,12 +6577,12 @@
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B436" t="s">
-        <v>27</v>
-      </c>
-      <c r="C436" t="s">
+        <v>15</v>
+      </c>
+      <c r="C436">
         <v>3</v>
       </c>
       <c r="D436">
@@ -6627,12 +6591,12 @@
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B437" t="s">
-        <v>27</v>
-      </c>
-      <c r="C437" t="s">
+        <v>15</v>
+      </c>
+      <c r="C437">
         <v>4</v>
       </c>
       <c r="D437">
@@ -6641,12 +6605,12 @@
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B438" t="s">
-        <v>27</v>
-      </c>
-      <c r="C438" t="s">
+        <v>15</v>
+      </c>
+      <c r="C438">
         <v>5</v>
       </c>
       <c r="D438">
@@ -6655,12 +6619,12 @@
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B439" t="s">
-        <v>27</v>
-      </c>
-      <c r="C439" t="s">
+        <v>15</v>
+      </c>
+      <c r="C439">
         <v>6</v>
       </c>
       <c r="D439">
@@ -6669,12 +6633,12 @@
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B440" t="s">
-        <v>27</v>
-      </c>
-      <c r="C440" t="s">
+        <v>15</v>
+      </c>
+      <c r="C440">
         <v>7</v>
       </c>
       <c r="D440">
@@ -6683,12 +6647,12 @@
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B441" t="s">
-        <v>27</v>
-      </c>
-      <c r="C441" t="s">
+        <v>15</v>
+      </c>
+      <c r="C441">
         <v>8</v>
       </c>
       <c r="D441">
@@ -6697,12 +6661,12 @@
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B442" t="s">
-        <v>27</v>
-      </c>
-      <c r="C442" t="s">
+        <v>15</v>
+      </c>
+      <c r="C442">
         <v>9</v>
       </c>
       <c r="D442">
@@ -6711,12 +6675,12 @@
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B443" t="s">
-        <v>27</v>
-      </c>
-      <c r="C443" t="s">
+        <v>15</v>
+      </c>
+      <c r="C443">
         <v>10</v>
       </c>
       <c r="D443">
@@ -6725,12 +6689,12 @@
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B444" t="s">
-        <v>27</v>
-      </c>
-      <c r="C444" t="s">
+        <v>15</v>
+      </c>
+      <c r="C444">
         <v>11</v>
       </c>
       <c r="D444">
@@ -6739,12 +6703,12 @@
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B445" t="s">
-        <v>27</v>
-      </c>
-      <c r="C445" t="s">
+        <v>15</v>
+      </c>
+      <c r="C445">
         <v>12</v>
       </c>
       <c r="D445">
@@ -6753,12 +6717,12 @@
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B446" t="s">
-        <v>28</v>
-      </c>
-      <c r="C446" t="s">
+        <v>16</v>
+      </c>
+      <c r="C446">
         <v>1</v>
       </c>
       <c r="D446">
@@ -6767,12 +6731,12 @@
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B447" t="s">
-        <v>28</v>
-      </c>
-      <c r="C447" t="s">
+        <v>16</v>
+      </c>
+      <c r="C447">
         <v>2</v>
       </c>
       <c r="D447">
@@ -6781,12 +6745,12 @@
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B448" t="s">
-        <v>28</v>
-      </c>
-      <c r="C448" t="s">
+        <v>16</v>
+      </c>
+      <c r="C448">
         <v>3</v>
       </c>
       <c r="D448">
@@ -6795,12 +6759,12 @@
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B449" t="s">
-        <v>28</v>
-      </c>
-      <c r="C449" t="s">
+        <v>16</v>
+      </c>
+      <c r="C449">
         <v>4</v>
       </c>
       <c r="D449">
@@ -6809,12 +6773,12 @@
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B450" t="s">
-        <v>28</v>
-      </c>
-      <c r="C450" t="s">
+        <v>16</v>
+      </c>
+      <c r="C450">
         <v>5</v>
       </c>
       <c r="D450">
@@ -6823,12 +6787,12 @@
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B451" t="s">
-        <v>28</v>
-      </c>
-      <c r="C451" t="s">
+        <v>16</v>
+      </c>
+      <c r="C451">
         <v>6</v>
       </c>
       <c r="D451">
@@ -6837,12 +6801,12 @@
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B452" t="s">
-        <v>28</v>
-      </c>
-      <c r="C452" t="s">
+        <v>16</v>
+      </c>
+      <c r="C452">
         <v>7</v>
       </c>
       <c r="D452">
@@ -6851,12 +6815,12 @@
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B453" t="s">
-        <v>28</v>
-      </c>
-      <c r="C453" t="s">
+        <v>16</v>
+      </c>
+      <c r="C453">
         <v>8</v>
       </c>
       <c r="D453">
@@ -6865,12 +6829,12 @@
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B454" t="s">
-        <v>28</v>
-      </c>
-      <c r="C454" t="s">
+        <v>16</v>
+      </c>
+      <c r="C454">
         <v>9</v>
       </c>
       <c r="D454">
@@ -6879,12 +6843,12 @@
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B455" t="s">
-        <v>28</v>
-      </c>
-      <c r="C455" t="s">
+        <v>16</v>
+      </c>
+      <c r="C455">
         <v>10</v>
       </c>
       <c r="D455">
@@ -6893,12 +6857,12 @@
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B456" t="s">
-        <v>28</v>
-      </c>
-      <c r="C456" t="s">
+        <v>16</v>
+      </c>
+      <c r="C456">
         <v>11</v>
       </c>
       <c r="D456">
@@ -6907,12 +6871,12 @@
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B457" t="s">
-        <v>28</v>
-      </c>
-      <c r="C457" t="s">
+        <v>16</v>
+      </c>
+      <c r="C457">
         <v>12</v>
       </c>
       <c r="D457">
@@ -6921,12 +6885,12 @@
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B458" t="s">
-        <v>29</v>
-      </c>
-      <c r="C458" t="s">
+        <v>17</v>
+      </c>
+      <c r="C458">
         <v>1</v>
       </c>
       <c r="D458">
@@ -6935,12 +6899,12 @@
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B459" t="s">
-        <v>29</v>
-      </c>
-      <c r="C459" t="s">
+        <v>17</v>
+      </c>
+      <c r="C459">
         <v>2</v>
       </c>
       <c r="D459">
@@ -6949,12 +6913,12 @@
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B460" t="s">
-        <v>29</v>
-      </c>
-      <c r="C460" t="s">
+        <v>17</v>
+      </c>
+      <c r="C460">
         <v>3</v>
       </c>
       <c r="D460">
@@ -6963,12 +6927,12 @@
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B461" t="s">
-        <v>29</v>
-      </c>
-      <c r="C461" t="s">
+        <v>17</v>
+      </c>
+      <c r="C461">
         <v>4</v>
       </c>
       <c r="D461">
@@ -6977,12 +6941,12 @@
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B462" t="s">
-        <v>29</v>
-      </c>
-      <c r="C462" t="s">
+        <v>17</v>
+      </c>
+      <c r="C462">
         <v>5</v>
       </c>
       <c r="D462">
@@ -6991,12 +6955,12 @@
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B463" t="s">
-        <v>29</v>
-      </c>
-      <c r="C463" t="s">
+        <v>17</v>
+      </c>
+      <c r="C463">
         <v>6</v>
       </c>
       <c r="D463">
@@ -7005,12 +6969,12 @@
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B464" t="s">
-        <v>29</v>
-      </c>
-      <c r="C464" t="s">
+        <v>17</v>
+      </c>
+      <c r="C464">
         <v>7</v>
       </c>
       <c r="D464">
@@ -7019,12 +6983,12 @@
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B465" t="s">
-        <v>29</v>
-      </c>
-      <c r="C465" t="s">
+        <v>17</v>
+      </c>
+      <c r="C465">
         <v>8</v>
       </c>
       <c r="D465">
@@ -7033,12 +6997,12 @@
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B466" t="s">
-        <v>29</v>
-      </c>
-      <c r="C466" t="s">
+        <v>17</v>
+      </c>
+      <c r="C466">
         <v>9</v>
       </c>
       <c r="D466">
@@ -7047,12 +7011,12 @@
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B467" t="s">
-        <v>29</v>
-      </c>
-      <c r="C467" t="s">
+        <v>17</v>
+      </c>
+      <c r="C467">
         <v>10</v>
       </c>
       <c r="D467">
@@ -7061,12 +7025,12 @@
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B468" t="s">
-        <v>29</v>
-      </c>
-      <c r="C468" t="s">
+        <v>17</v>
+      </c>
+      <c r="C468">
         <v>11</v>
       </c>
       <c r="D468">
@@ -7075,12 +7039,12 @@
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B469" t="s">
-        <v>29</v>
-      </c>
-      <c r="C469" t="s">
+        <v>17</v>
+      </c>
+      <c r="C469">
         <v>12</v>
       </c>
       <c r="D469">
@@ -7089,12 +7053,12 @@
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B470" t="s">
-        <v>30</v>
-      </c>
-      <c r="C470" t="s">
+        <v>18</v>
+      </c>
+      <c r="C470">
         <v>1</v>
       </c>
       <c r="D470">
@@ -7103,12 +7067,12 @@
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B471" t="s">
-        <v>30</v>
-      </c>
-      <c r="C471" t="s">
+        <v>18</v>
+      </c>
+      <c r="C471">
         <v>2</v>
       </c>
       <c r="D471">
@@ -7117,12 +7081,12 @@
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B472" t="s">
-        <v>30</v>
-      </c>
-      <c r="C472" t="s">
+        <v>18</v>
+      </c>
+      <c r="C472">
         <v>3</v>
       </c>
       <c r="D472">
@@ -7131,12 +7095,12 @@
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B473" t="s">
-        <v>30</v>
-      </c>
-      <c r="C473" t="s">
+        <v>18</v>
+      </c>
+      <c r="C473">
         <v>4</v>
       </c>
       <c r="D473">
@@ -7145,12 +7109,12 @@
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B474" t="s">
-        <v>30</v>
-      </c>
-      <c r="C474" t="s">
+        <v>18</v>
+      </c>
+      <c r="C474">
         <v>5</v>
       </c>
       <c r="D474">
@@ -7159,12 +7123,12 @@
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B475" t="s">
-        <v>30</v>
-      </c>
-      <c r="C475" t="s">
+        <v>18</v>
+      </c>
+      <c r="C475">
         <v>6</v>
       </c>
       <c r="D475">
@@ -7173,12 +7137,12 @@
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B476" t="s">
-        <v>30</v>
-      </c>
-      <c r="C476" t="s">
+        <v>18</v>
+      </c>
+      <c r="C476">
         <v>7</v>
       </c>
       <c r="D476">
@@ -7187,12 +7151,12 @@
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B477" t="s">
-        <v>30</v>
-      </c>
-      <c r="C477" t="s">
+        <v>18</v>
+      </c>
+      <c r="C477">
         <v>8</v>
       </c>
       <c r="D477">
@@ -7201,12 +7165,12 @@
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B478" t="s">
-        <v>30</v>
-      </c>
-      <c r="C478" t="s">
+        <v>18</v>
+      </c>
+      <c r="C478">
         <v>9</v>
       </c>
       <c r="D478">
@@ -7215,12 +7179,12 @@
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B479" t="s">
-        <v>30</v>
-      </c>
-      <c r="C479" t="s">
+        <v>18</v>
+      </c>
+      <c r="C479">
         <v>10</v>
       </c>
       <c r="D479">
@@ -7229,12 +7193,12 @@
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B480" t="s">
-        <v>30</v>
-      </c>
-      <c r="C480" t="s">
+        <v>18</v>
+      </c>
+      <c r="C480">
         <v>11</v>
       </c>
       <c r="D480">
@@ -7243,12 +7207,12 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B481" t="s">
-        <v>30</v>
-      </c>
-      <c r="C481" t="s">
+        <v>18</v>
+      </c>
+      <c r="C481">
         <v>12</v>
       </c>
       <c r="D481">
@@ -7257,12 +7221,12 @@
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B482" t="s">
-        <v>31</v>
-      </c>
-      <c r="C482" t="s">
+        <v>19</v>
+      </c>
+      <c r="C482">
         <v>1</v>
       </c>
       <c r="D482">
@@ -7271,12 +7235,12 @@
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B483" t="s">
-        <v>31</v>
-      </c>
-      <c r="C483" t="s">
+        <v>19</v>
+      </c>
+      <c r="C483">
         <v>2</v>
       </c>
       <c r="D483">
@@ -7285,12 +7249,12 @@
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B484" t="s">
-        <v>31</v>
-      </c>
-      <c r="C484" t="s">
+        <v>19</v>
+      </c>
+      <c r="C484">
         <v>3</v>
       </c>
       <c r="D484">
@@ -7299,12 +7263,12 @@
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B485" t="s">
-        <v>31</v>
-      </c>
-      <c r="C485" t="s">
+        <v>19</v>
+      </c>
+      <c r="C485">
         <v>4</v>
       </c>
       <c r="D485">
@@ -7313,12 +7277,12 @@
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B486" t="s">
-        <v>31</v>
-      </c>
-      <c r="C486" t="s">
+        <v>19</v>
+      </c>
+      <c r="C486">
         <v>5</v>
       </c>
       <c r="D486">
@@ -7327,12 +7291,12 @@
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B487" t="s">
-        <v>31</v>
-      </c>
-      <c r="C487" t="s">
+        <v>19</v>
+      </c>
+      <c r="C487">
         <v>6</v>
       </c>
       <c r="D487">
@@ -7341,12 +7305,12 @@
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B488" t="s">
-        <v>31</v>
-      </c>
-      <c r="C488" t="s">
+        <v>19</v>
+      </c>
+      <c r="C488">
         <v>7</v>
       </c>
       <c r="D488">
@@ -7355,12 +7319,12 @@
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B489" t="s">
-        <v>31</v>
-      </c>
-      <c r="C489" t="s">
+        <v>19</v>
+      </c>
+      <c r="C489">
         <v>8</v>
       </c>
       <c r="D489">
@@ -7369,12 +7333,12 @@
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B490" t="s">
-        <v>31</v>
-      </c>
-      <c r="C490" t="s">
+        <v>19</v>
+      </c>
+      <c r="C490">
         <v>9</v>
       </c>
       <c r="D490">
@@ -7383,12 +7347,12 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B491" t="s">
-        <v>31</v>
-      </c>
-      <c r="C491" t="s">
+        <v>19</v>
+      </c>
+      <c r="C491">
         <v>10</v>
       </c>
       <c r="D491">
@@ -7397,12 +7361,12 @@
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B492" t="s">
-        <v>31</v>
-      </c>
-      <c r="C492" t="s">
+        <v>19</v>
+      </c>
+      <c r="C492">
         <v>11</v>
       </c>
       <c r="D492">
@@ -7411,12 +7375,12 @@
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B493" t="s">
-        <v>31</v>
-      </c>
-      <c r="C493" t="s">
+        <v>19</v>
+      </c>
+      <c r="C493">
         <v>12</v>
       </c>
       <c r="D493">
@@ -7425,12 +7389,12 @@
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B494" t="s">
-        <v>32</v>
-      </c>
-      <c r="C494" t="s">
+        <v>20</v>
+      </c>
+      <c r="C494">
         <v>1</v>
       </c>
       <c r="D494">
@@ -7439,12 +7403,12 @@
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B495" t="s">
-        <v>32</v>
-      </c>
-      <c r="C495" t="s">
+        <v>20</v>
+      </c>
+      <c r="C495">
         <v>2</v>
       </c>
       <c r="D495">
@@ -7453,12 +7417,12 @@
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B496" t="s">
-        <v>32</v>
-      </c>
-      <c r="C496" t="s">
+        <v>20</v>
+      </c>
+      <c r="C496">
         <v>3</v>
       </c>
       <c r="D496">
@@ -7467,12 +7431,12 @@
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B497" t="s">
-        <v>32</v>
-      </c>
-      <c r="C497" t="s">
+        <v>20</v>
+      </c>
+      <c r="C497">
         <v>4</v>
       </c>
       <c r="D497">
@@ -7481,12 +7445,12 @@
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B498" t="s">
-        <v>32</v>
-      </c>
-      <c r="C498" t="s">
+        <v>20</v>
+      </c>
+      <c r="C498">
         <v>5</v>
       </c>
       <c r="D498">
@@ -7495,12 +7459,12 @@
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B499" t="s">
-        <v>32</v>
-      </c>
-      <c r="C499" t="s">
+        <v>20</v>
+      </c>
+      <c r="C499">
         <v>6</v>
       </c>
       <c r="D499">
@@ -7509,12 +7473,12 @@
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B500" t="s">
-        <v>32</v>
-      </c>
-      <c r="C500" t="s">
+        <v>20</v>
+      </c>
+      <c r="C500">
         <v>7</v>
       </c>
       <c r="D500">
@@ -7523,12 +7487,12 @@
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B501" t="s">
-        <v>32</v>
-      </c>
-      <c r="C501" t="s">
+        <v>20</v>
+      </c>
+      <c r="C501">
         <v>8</v>
       </c>
       <c r="D501">
@@ -7537,12 +7501,12 @@
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B502" t="s">
-        <v>32</v>
-      </c>
-      <c r="C502" t="s">
+        <v>20</v>
+      </c>
+      <c r="C502">
         <v>9</v>
       </c>
       <c r="D502">
@@ -7551,12 +7515,12 @@
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B503" t="s">
-        <v>32</v>
-      </c>
-      <c r="C503" t="s">
+        <v>20</v>
+      </c>
+      <c r="C503">
         <v>10</v>
       </c>
       <c r="D503">
@@ -7565,12 +7529,12 @@
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B504" t="s">
-        <v>32</v>
-      </c>
-      <c r="C504" t="s">
+        <v>20</v>
+      </c>
+      <c r="C504">
         <v>11</v>
       </c>
       <c r="D504">
@@ -7579,12 +7543,12 @@
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B505" t="s">
-        <v>32</v>
-      </c>
-      <c r="C505" t="s">
+        <v>20</v>
+      </c>
+      <c r="C505">
         <v>12</v>
       </c>
       <c r="D505">
@@ -7593,12 +7557,12 @@
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B506" t="s">
-        <v>33</v>
-      </c>
-      <c r="C506" t="s">
+        <v>21</v>
+      </c>
+      <c r="C506">
         <v>1</v>
       </c>
       <c r="D506">
@@ -7607,12 +7571,12 @@
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B507" t="s">
-        <v>33</v>
-      </c>
-      <c r="C507" t="s">
+        <v>21</v>
+      </c>
+      <c r="C507">
         <v>2</v>
       </c>
       <c r="D507">
@@ -7621,12 +7585,12 @@
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B508" t="s">
-        <v>33</v>
-      </c>
-      <c r="C508" t="s">
+        <v>21</v>
+      </c>
+      <c r="C508">
         <v>3</v>
       </c>
       <c r="D508">
@@ -7635,12 +7599,12 @@
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B509" t="s">
-        <v>33</v>
-      </c>
-      <c r="C509" t="s">
+        <v>21</v>
+      </c>
+      <c r="C509">
         <v>4</v>
       </c>
       <c r="D509">
@@ -7649,12 +7613,12 @@
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B510" t="s">
-        <v>33</v>
-      </c>
-      <c r="C510" t="s">
+        <v>21</v>
+      </c>
+      <c r="C510">
         <v>5</v>
       </c>
       <c r="D510">
@@ -7663,12 +7627,12 @@
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B511" t="s">
-        <v>33</v>
-      </c>
-      <c r="C511" t="s">
+        <v>21</v>
+      </c>
+      <c r="C511">
         <v>6</v>
       </c>
       <c r="D511">
@@ -7677,12 +7641,12 @@
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B512" t="s">
-        <v>33</v>
-      </c>
-      <c r="C512" t="s">
+        <v>21</v>
+      </c>
+      <c r="C512">
         <v>7</v>
       </c>
       <c r="D512">
@@ -7691,12 +7655,12 @@
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B513" t="s">
-        <v>33</v>
-      </c>
-      <c r="C513" t="s">
+        <v>21</v>
+      </c>
+      <c r="C513">
         <v>8</v>
       </c>
       <c r="D513">
@@ -7705,12 +7669,12 @@
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B514" t="s">
-        <v>33</v>
-      </c>
-      <c r="C514" t="s">
+        <v>21</v>
+      </c>
+      <c r="C514">
         <v>9</v>
       </c>
       <c r="D514">
@@ -7719,12 +7683,12 @@
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B515" t="s">
-        <v>33</v>
-      </c>
-      <c r="C515" t="s">
+        <v>21</v>
+      </c>
+      <c r="C515">
         <v>10</v>
       </c>
       <c r="D515">
@@ -7733,12 +7697,12 @@
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B516" t="s">
-        <v>33</v>
-      </c>
-      <c r="C516" t="s">
+        <v>21</v>
+      </c>
+      <c r="C516">
         <v>11</v>
       </c>
       <c r="D516">
@@ -7747,12 +7711,12 @@
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B517" t="s">
-        <v>33</v>
-      </c>
-      <c r="C517" t="s">
+        <v>21</v>
+      </c>
+      <c r="C517">
         <v>12</v>
       </c>
       <c r="D517">
@@ -7761,12 +7725,12 @@
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B518" t="s">
-        <v>34</v>
-      </c>
-      <c r="C518" t="s">
+        <v>22</v>
+      </c>
+      <c r="C518">
         <v>1</v>
       </c>
       <c r="D518">
@@ -7775,12 +7739,12 @@
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B519" t="s">
-        <v>34</v>
-      </c>
-      <c r="C519" t="s">
+        <v>22</v>
+      </c>
+      <c r="C519">
         <v>2</v>
       </c>
       <c r="D519">
@@ -7789,12 +7753,12 @@
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B520" t="s">
-        <v>34</v>
-      </c>
-      <c r="C520" t="s">
+        <v>22</v>
+      </c>
+      <c r="C520">
         <v>3</v>
       </c>
       <c r="D520">
@@ -7803,12 +7767,12 @@
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B521" t="s">
-        <v>34</v>
-      </c>
-      <c r="C521" t="s">
+        <v>22</v>
+      </c>
+      <c r="C521">
         <v>4</v>
       </c>
       <c r="D521">
@@ -7817,12 +7781,12 @@
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B522" t="s">
-        <v>34</v>
-      </c>
-      <c r="C522" t="s">
+        <v>22</v>
+      </c>
+      <c r="C522">
         <v>5</v>
       </c>
       <c r="D522">
@@ -7831,12 +7795,12 @@
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B523" t="s">
-        <v>34</v>
-      </c>
-      <c r="C523" t="s">
+        <v>22</v>
+      </c>
+      <c r="C523">
         <v>6</v>
       </c>
       <c r="D523">
@@ -7845,12 +7809,12 @@
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B524" t="s">
-        <v>34</v>
-      </c>
-      <c r="C524" t="s">
+        <v>22</v>
+      </c>
+      <c r="C524">
         <v>7</v>
       </c>
       <c r="D524">
@@ -7859,12 +7823,12 @@
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B525" t="s">
-        <v>34</v>
-      </c>
-      <c r="C525" t="s">
+        <v>22</v>
+      </c>
+      <c r="C525">
         <v>8</v>
       </c>
       <c r="D525">
@@ -7873,12 +7837,12 @@
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B526" t="s">
-        <v>34</v>
-      </c>
-      <c r="C526" t="s">
+        <v>22</v>
+      </c>
+      <c r="C526">
         <v>9</v>
       </c>
       <c r="D526">
@@ -7887,12 +7851,12 @@
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B527" t="s">
-        <v>34</v>
-      </c>
-      <c r="C527" t="s">
+        <v>22</v>
+      </c>
+      <c r="C527">
         <v>10</v>
       </c>
       <c r="D527">
@@ -7901,12 +7865,12 @@
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B528" t="s">
-        <v>34</v>
-      </c>
-      <c r="C528" t="s">
+        <v>22</v>
+      </c>
+      <c r="C528">
         <v>11</v>
       </c>
       <c r="D528">
@@ -7915,12 +7879,12 @@
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B529" t="s">
-        <v>34</v>
-      </c>
-      <c r="C529" t="s">
+        <v>22</v>
+      </c>
+      <c r="C529">
         <v>12</v>
       </c>
       <c r="D529">
@@ -7929,12 +7893,12 @@
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B530" t="s">
-        <v>35</v>
-      </c>
-      <c r="C530" t="s">
+        <v>23</v>
+      </c>
+      <c r="C530">
         <v>1</v>
       </c>
       <c r="D530">
@@ -7943,12 +7907,12 @@
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B531" t="s">
-        <v>35</v>
-      </c>
-      <c r="C531" t="s">
+        <v>23</v>
+      </c>
+      <c r="C531">
         <v>2</v>
       </c>
       <c r="D531">
@@ -7957,12 +7921,12 @@
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B532" t="s">
-        <v>35</v>
-      </c>
-      <c r="C532" t="s">
+        <v>23</v>
+      </c>
+      <c r="C532">
         <v>3</v>
       </c>
       <c r="D532">
@@ -7971,12 +7935,12 @@
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B533" t="s">
-        <v>35</v>
-      </c>
-      <c r="C533" t="s">
+        <v>23</v>
+      </c>
+      <c r="C533">
         <v>4</v>
       </c>
       <c r="D533">
@@ -7985,12 +7949,12 @@
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B534" t="s">
-        <v>35</v>
-      </c>
-      <c r="C534" t="s">
+        <v>23</v>
+      </c>
+      <c r="C534">
         <v>5</v>
       </c>
       <c r="D534">
@@ -7999,12 +7963,12 @@
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B535" t="s">
-        <v>35</v>
-      </c>
-      <c r="C535" t="s">
+        <v>23</v>
+      </c>
+      <c r="C535">
         <v>6</v>
       </c>
       <c r="D535">
@@ -8013,12 +7977,12 @@
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B536" t="s">
-        <v>35</v>
-      </c>
-      <c r="C536" t="s">
+        <v>23</v>
+      </c>
+      <c r="C536">
         <v>7</v>
       </c>
       <c r="D536">
@@ -8027,12 +7991,12 @@
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B537" t="s">
-        <v>35</v>
-      </c>
-      <c r="C537" t="s">
+        <v>23</v>
+      </c>
+      <c r="C537">
         <v>8</v>
       </c>
       <c r="D537">
@@ -8041,12 +8005,12 @@
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B538" t="s">
-        <v>35</v>
-      </c>
-      <c r="C538" t="s">
+        <v>23</v>
+      </c>
+      <c r="C538">
         <v>9</v>
       </c>
       <c r="D538">
@@ -8055,12 +8019,12 @@
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B539" t="s">
-        <v>35</v>
-      </c>
-      <c r="C539" t="s">
+        <v>23</v>
+      </c>
+      <c r="C539">
         <v>10</v>
       </c>
       <c r="D539">
@@ -8069,12 +8033,12 @@
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B540" t="s">
-        <v>35</v>
-      </c>
-      <c r="C540" t="s">
+        <v>23</v>
+      </c>
+      <c r="C540">
         <v>11</v>
       </c>
       <c r="D540">
@@ -8083,12 +8047,12 @@
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B541" t="s">
-        <v>35</v>
-      </c>
-      <c r="C541" t="s">
+        <v>23</v>
+      </c>
+      <c r="C541">
         <v>12</v>
       </c>
       <c r="D541">
@@ -8097,12 +8061,12 @@
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B542" t="s">
-        <v>36</v>
-      </c>
-      <c r="C542" t="s">
+        <v>24</v>
+      </c>
+      <c r="C542">
         <v>1</v>
       </c>
       <c r="D542">
@@ -8111,12 +8075,12 @@
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B543" t="s">
-        <v>36</v>
-      </c>
-      <c r="C543" t="s">
+        <v>24</v>
+      </c>
+      <c r="C543">
         <v>2</v>
       </c>
       <c r="D543">
@@ -8125,12 +8089,12 @@
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B544" t="s">
-        <v>36</v>
-      </c>
-      <c r="C544" t="s">
+        <v>24</v>
+      </c>
+      <c r="C544">
         <v>3</v>
       </c>
       <c r="D544">
@@ -8139,12 +8103,12 @@
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B545" t="s">
-        <v>36</v>
-      </c>
-      <c r="C545" t="s">
+        <v>24</v>
+      </c>
+      <c r="C545">
         <v>4</v>
       </c>
       <c r="D545">
@@ -8153,12 +8117,12 @@
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B546" t="s">
-        <v>36</v>
-      </c>
-      <c r="C546" t="s">
+        <v>24</v>
+      </c>
+      <c r="C546">
         <v>5</v>
       </c>
       <c r="D546">
@@ -8167,12 +8131,12 @@
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B547" t="s">
-        <v>36</v>
-      </c>
-      <c r="C547" t="s">
+        <v>24</v>
+      </c>
+      <c r="C547">
         <v>6</v>
       </c>
       <c r="D547">
@@ -8181,12 +8145,12 @@
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B548" t="s">
-        <v>36</v>
-      </c>
-      <c r="C548" t="s">
+        <v>24</v>
+      </c>
+      <c r="C548">
         <v>7</v>
       </c>
       <c r="D548">
@@ -8195,12 +8159,12 @@
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B549" t="s">
-        <v>36</v>
-      </c>
-      <c r="C549" t="s">
+        <v>24</v>
+      </c>
+      <c r="C549">
         <v>8</v>
       </c>
       <c r="D549">
@@ -8209,12 +8173,12 @@
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B550" t="s">
-        <v>36</v>
-      </c>
-      <c r="C550" t="s">
+        <v>24</v>
+      </c>
+      <c r="C550">
         <v>9</v>
       </c>
       <c r="D550">
@@ -8223,12 +8187,12 @@
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B551" t="s">
-        <v>36</v>
-      </c>
-      <c r="C551" t="s">
+        <v>24</v>
+      </c>
+      <c r="C551">
         <v>10</v>
       </c>
       <c r="D551">
@@ -8237,12 +8201,12 @@
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B552" t="s">
-        <v>36</v>
-      </c>
-      <c r="C552" t="s">
+        <v>24</v>
+      </c>
+      <c r="C552">
         <v>11</v>
       </c>
       <c r="D552">
@@ -8251,12 +8215,12 @@
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B553" t="s">
-        <v>36</v>
-      </c>
-      <c r="C553" t="s">
+        <v>24</v>
+      </c>
+      <c r="C553">
         <v>12</v>
       </c>
       <c r="D553">
@@ -8265,12 +8229,12 @@
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B554" t="s">
-        <v>37</v>
-      </c>
-      <c r="C554" t="s">
+        <v>25</v>
+      </c>
+      <c r="C554">
         <v>1</v>
       </c>
       <c r="D554">
@@ -8279,12 +8243,12 @@
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B555" t="s">
-        <v>37</v>
-      </c>
-      <c r="C555" t="s">
+        <v>25</v>
+      </c>
+      <c r="C555">
         <v>2</v>
       </c>
       <c r="D555">
@@ -8293,12 +8257,12 @@
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B556" t="s">
-        <v>37</v>
-      </c>
-      <c r="C556" t="s">
+        <v>25</v>
+      </c>
+      <c r="C556">
         <v>3</v>
       </c>
       <c r="D556">
@@ -8307,12 +8271,12 @@
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B557" t="s">
-        <v>37</v>
-      </c>
-      <c r="C557" t="s">
+        <v>25</v>
+      </c>
+      <c r="C557">
         <v>4</v>
       </c>
       <c r="D557">
@@ -8321,12 +8285,12 @@
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B558" t="s">
-        <v>37</v>
-      </c>
-      <c r="C558" t="s">
+        <v>25</v>
+      </c>
+      <c r="C558">
         <v>5</v>
       </c>
       <c r="D558">
@@ -8335,12 +8299,12 @@
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B559" t="s">
-        <v>37</v>
-      </c>
-      <c r="C559" t="s">
+        <v>25</v>
+      </c>
+      <c r="C559">
         <v>6</v>
       </c>
       <c r="D559">
@@ -8349,12 +8313,12 @@
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B560" t="s">
-        <v>37</v>
-      </c>
-      <c r="C560" t="s">
+        <v>25</v>
+      </c>
+      <c r="C560">
         <v>7</v>
       </c>
       <c r="D560">
@@ -8363,12 +8327,12 @@
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B561" t="s">
-        <v>37</v>
-      </c>
-      <c r="C561" t="s">
+        <v>25</v>
+      </c>
+      <c r="C561">
         <v>8</v>
       </c>
       <c r="D561">
@@ -8377,12 +8341,12 @@
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B562" t="s">
-        <v>37</v>
-      </c>
-      <c r="C562" t="s">
+        <v>25</v>
+      </c>
+      <c r="C562">
         <v>9</v>
       </c>
       <c r="D562">
@@ -8391,12 +8355,12 @@
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B563" t="s">
-        <v>37</v>
-      </c>
-      <c r="C563" t="s">
+        <v>25</v>
+      </c>
+      <c r="C563">
         <v>10</v>
       </c>
       <c r="D563">
@@ -8405,12 +8369,12 @@
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B564" t="s">
-        <v>37</v>
-      </c>
-      <c r="C564" t="s">
+        <v>25</v>
+      </c>
+      <c r="C564">
         <v>11</v>
       </c>
       <c r="D564">
@@ -8419,12 +8383,12 @@
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B565" t="s">
-        <v>37</v>
-      </c>
-      <c r="C565" t="s">
+        <v>25</v>
+      </c>
+      <c r="C565">
         <v>12</v>
       </c>
       <c r="D565">
@@ -8433,12 +8397,12 @@
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B566" t="s">
-        <v>38</v>
-      </c>
-      <c r="C566" t="s">
+        <v>26</v>
+      </c>
+      <c r="C566">
         <v>1</v>
       </c>
       <c r="D566">
@@ -8447,12 +8411,12 @@
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B567" t="s">
-        <v>38</v>
-      </c>
-      <c r="C567" t="s">
+        <v>26</v>
+      </c>
+      <c r="C567">
         <v>2</v>
       </c>
       <c r="D567">
@@ -8461,12 +8425,12 @@
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B568" t="s">
-        <v>38</v>
-      </c>
-      <c r="C568" t="s">
+        <v>26</v>
+      </c>
+      <c r="C568">
         <v>3</v>
       </c>
       <c r="D568">
@@ -8475,12 +8439,12 @@
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B569" t="s">
-        <v>38</v>
-      </c>
-      <c r="C569" t="s">
+        <v>26</v>
+      </c>
+      <c r="C569">
         <v>4</v>
       </c>
       <c r="D569">
@@ -8489,12 +8453,12 @@
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B570" t="s">
-        <v>38</v>
-      </c>
-      <c r="C570" t="s">
+        <v>26</v>
+      </c>
+      <c r="C570">
         <v>5</v>
       </c>
       <c r="D570">
@@ -8503,12 +8467,12 @@
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B571" t="s">
-        <v>38</v>
-      </c>
-      <c r="C571" t="s">
+        <v>26</v>
+      </c>
+      <c r="C571">
         <v>6</v>
       </c>
       <c r="D571">
@@ -8517,12 +8481,12 @@
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B572" t="s">
-        <v>38</v>
-      </c>
-      <c r="C572" t="s">
+        <v>26</v>
+      </c>
+      <c r="C572">
         <v>7</v>
       </c>
       <c r="D572">
@@ -8531,12 +8495,12 @@
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B573" t="s">
-        <v>38</v>
-      </c>
-      <c r="C573" t="s">
+        <v>26</v>
+      </c>
+      <c r="C573">
         <v>8</v>
       </c>
       <c r="D573">
@@ -8545,12 +8509,12 @@
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B574" t="s">
-        <v>38</v>
-      </c>
-      <c r="C574" t="s">
+        <v>26</v>
+      </c>
+      <c r="C574">
         <v>9</v>
       </c>
       <c r="D574">
@@ -8559,12 +8523,12 @@
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B575" t="s">
-        <v>38</v>
-      </c>
-      <c r="C575" t="s">
+        <v>26</v>
+      </c>
+      <c r="C575">
         <v>10</v>
       </c>
       <c r="D575">
@@ -8573,12 +8537,12 @@
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B576" t="s">
-        <v>38</v>
-      </c>
-      <c r="C576" t="s">
+        <v>26</v>
+      </c>
+      <c r="C576">
         <v>11</v>
       </c>
       <c r="D576">
@@ -8587,12 +8551,12 @@
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B577" t="s">
-        <v>38</v>
-      </c>
-      <c r="C577" t="s">
+        <v>26</v>
+      </c>
+      <c r="C577">
         <v>12</v>
       </c>
       <c r="D577">
